--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\bldgs\SYDEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\bldgs\SYDEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C0CB3-1ACC-43D1-BFE5-D0AF268960C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7153B7BD-A2AD-46DC-B245-4242A4299875}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12390" yWindow="1950" windowWidth="15720" windowHeight="14910" tabRatio="670" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="900" yWindow="1380" windowWidth="16830" windowHeight="15420" activeTab="2" xr2:uid="{8574459E-C19F-4128-9FF5-AEEDFCAA7B41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{8574459E-C19F-4128-9FF5-AEEDFCAA7B41}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>offshore wind</t>
-  </si>
-  <si>
-    <t>Annual Energy Outlook 2018</t>
   </si>
   <si>
     <t>Release date: February 2017
@@ -2022,6 +2019,9 @@
   </si>
   <si>
     <t>32-AEO2020.87.highogs-d112619a</t>
+  </si>
+  <si>
+    <t>Annual Energy Outlook 2020</t>
   </si>
 </sst>
 </file>
@@ -2383,6 +2383,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2401,9 +2404,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2753,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="A22" sqref="A22"/>
@@ -2767,7 +2767,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2785,17 +2785,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>65</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2840,17 +2840,17 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2863,7 +2863,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2889,7 +2889,7 @@
         <v>1000</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2903,10 +2903,10 @@
   <dimension ref="A1:AK93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="A78" sqref="A78"/>
@@ -2920,33 +2920,33 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
         <v>212</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>213</v>
-      </c>
-      <c r="D5" t="s">
-        <v>214</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -3045,7 +3045,7 @@
         <v>2050</v>
       </c>
       <c r="AK5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -3053,29 +3053,29 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
         <v>217</v>
-      </c>
-      <c r="C7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" t="s">
         <v>219</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>220</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>221</v>
-      </c>
-      <c r="D8" t="s">
-        <v>222</v>
       </c>
       <c r="E8">
         <v>12.160138</v>
@@ -3173,22 +3173,22 @@
       <c r="AJ8">
         <v>18.267754</v>
       </c>
-      <c r="AK8" s="40">
+      <c r="AK8" s="34">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
         <v>223</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>224</v>
       </c>
-      <c r="C9" t="s">
-        <v>225</v>
-      </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9">
         <v>29.549334000000002</v>
@@ -3286,22 +3286,22 @@
       <c r="AJ9">
         <v>31.791246000000001</v>
       </c>
-      <c r="AK9" s="40">
+      <c r="AK9" s="34">
         <v>2E-3</v>
       </c>
     </row>
     <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" t="s">
         <v>226</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>227</v>
       </c>
-      <c r="C10" t="s">
-        <v>228</v>
-      </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10">
         <v>1.2967010000000001</v>
@@ -3399,22 +3399,22 @@
       <c r="AJ10">
         <v>1.158852</v>
       </c>
-      <c r="AK10" s="40">
+      <c r="AK10" s="34">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
         <v>229</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>230</v>
       </c>
-      <c r="C11" t="s">
-        <v>231</v>
-      </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E11">
         <v>59.438350999999997</v>
@@ -3512,22 +3512,22 @@
       <c r="AJ11">
         <v>77.609047000000004</v>
       </c>
-      <c r="AK11" s="40">
+      <c r="AK11" s="34">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="12" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
         <v>232</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>233</v>
       </c>
-      <c r="C12" t="s">
-        <v>234</v>
-      </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E12">
         <v>5.53918</v>
@@ -3625,22 +3625,22 @@
       <c r="AJ12">
         <v>4.0578789999999998</v>
       </c>
-      <c r="AK12" s="40">
+      <c r="AK12" s="34">
         <v>-0.01</v>
       </c>
     </row>
     <row r="13" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" t="s">
         <v>235</v>
       </c>
-      <c r="C13" t="s">
-        <v>236</v>
-      </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13">
         <v>5.0616490000000001</v>
@@ -3738,22 +3738,22 @@
       <c r="AJ13">
         <v>4.3974589999999996</v>
       </c>
-      <c r="AK13" s="40">
+      <c r="AK13" s="34">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" t="s">
         <v>237</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>238</v>
       </c>
-      <c r="C14" t="s">
-        <v>239</v>
-      </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14">
         <v>3.0339999999999998E-3</v>
@@ -3851,22 +3851,22 @@
       <c r="AJ14">
         <v>5.0198E-2</v>
       </c>
-      <c r="AK14" s="40">
+      <c r="AK14" s="34">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" t="s">
         <v>240</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>241</v>
       </c>
-      <c r="C15" t="s">
-        <v>242</v>
-      </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E15">
         <v>3.3147950000000002</v>
@@ -3964,22 +3964,22 @@
       <c r="AJ15">
         <v>2.3804919999999998</v>
       </c>
-      <c r="AK15" s="40">
+      <c r="AK15" s="34">
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" t="s">
         <v>243</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>244</v>
       </c>
-      <c r="C16" t="s">
-        <v>245</v>
-      </c>
       <c r="D16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E16">
         <v>0.62972499999999998</v>
@@ -4077,22 +4077,22 @@
       <c r="AJ16">
         <v>2.2025990000000002</v>
       </c>
-      <c r="AK16" s="40">
+      <c r="AK16" s="34">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" t="s">
         <v>246</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>247</v>
       </c>
-      <c r="C17" t="s">
-        <v>248</v>
-      </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E17">
         <v>116.99290499999999</v>
@@ -4190,30 +4190,30 @@
       <c r="AJ17">
         <v>141.915527</v>
       </c>
-      <c r="AK17" s="40">
+      <c r="AK17" s="34">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" t="s">
         <v>249</v>
-      </c>
-      <c r="C18" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" t="s">
         <v>251</v>
       </c>
-      <c r="C19" t="s">
-        <v>252</v>
-      </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E19">
         <v>12.16014</v>
@@ -4311,22 +4311,22 @@
       <c r="AJ19">
         <v>18.267754</v>
       </c>
-      <c r="AK19" s="40">
+      <c r="AK19" s="34">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" t="s">
         <v>253</v>
       </c>
-      <c r="C20" t="s">
-        <v>254</v>
-      </c>
       <c r="D20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20">
         <v>1.2967010000000001</v>
@@ -4424,22 +4424,22 @@
       <c r="AJ20">
         <v>1.158852</v>
       </c>
-      <c r="AK20" s="40">
+      <c r="AK20" s="34">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" t="s">
         <v>255</v>
       </c>
-      <c r="C21" t="s">
-        <v>256</v>
-      </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E21">
         <v>0.62972499999999998</v>
@@ -4537,22 +4537,22 @@
       <c r="AJ21">
         <v>2.2025999999999999</v>
       </c>
-      <c r="AK21" s="40">
+      <c r="AK21" s="34">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" t="s">
         <v>257</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>258</v>
       </c>
-      <c r="C22" t="s">
-        <v>259</v>
-      </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22">
         <v>60.295586</v>
@@ -4650,22 +4650,22 @@
       <c r="AJ22">
         <v>100.182877</v>
       </c>
-      <c r="AK22" s="40">
+      <c r="AK22" s="34">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" t="s">
         <v>260</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>261</v>
       </c>
-      <c r="C23" t="s">
-        <v>262</v>
-      </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E23">
         <v>57.229258999999999</v>
@@ -4763,22 +4763,22 @@
       <c r="AJ23">
         <v>52.994380999999997</v>
       </c>
-      <c r="AK23" s="40">
+      <c r="AK23" s="34">
         <v>-2E-3</v>
       </c>
     </row>
     <row r="24" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" t="s">
         <v>263</v>
       </c>
-      <c r="C24" t="s">
-        <v>264</v>
-      </c>
       <c r="D24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E24">
         <v>131.61142000000001</v>
@@ -4876,30 +4876,30 @@
       <c r="AJ24">
         <v>174.80645799999999</v>
       </c>
-      <c r="AK24" s="40">
+      <c r="AK24" s="34">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="25" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" t="s">
         <v>265</v>
-      </c>
-      <c r="C25" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" t="s">
         <v>267</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>268</v>
       </c>
-      <c r="C26" t="s">
-        <v>269</v>
-      </c>
       <c r="D26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E26">
         <v>57.777428</v>
@@ -4997,22 +4997,22 @@
       <c r="AJ26">
         <v>66.628776999999999</v>
       </c>
-      <c r="AK26" s="40">
+      <c r="AK26" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" t="s">
         <v>270</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>271</v>
       </c>
-      <c r="C27" t="s">
-        <v>272</v>
-      </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E27">
         <v>59.147540999999997</v>
@@ -5110,22 +5110,22 @@
       <c r="AJ27">
         <v>76.452385000000007</v>
       </c>
-      <c r="AK27" s="40">
+      <c r="AK27" s="34">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="28" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" t="s">
         <v>273</v>
       </c>
-      <c r="C28" t="s">
-        <v>274</v>
-      </c>
       <c r="D28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E28">
         <v>2.6672030000000002</v>
@@ -5223,22 +5223,22 @@
       <c r="AJ28">
         <v>1.6231549999999999</v>
       </c>
-      <c r="AK28" s="40">
+      <c r="AK28" s="34">
         <v>-1.6E-2</v>
       </c>
     </row>
     <row r="29" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" t="s">
         <v>275</v>
       </c>
-      <c r="C29" t="s">
-        <v>276</v>
-      </c>
       <c r="D29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E29">
         <v>4.0543930000000001</v>
@@ -5336,22 +5336,22 @@
       <c r="AJ29">
         <v>2.2124250000000001</v>
       </c>
-      <c r="AK29" s="40">
+      <c r="AK29" s="34">
         <v>-1.9E-2</v>
       </c>
     </row>
     <row r="30" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" t="s">
         <v>277</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>278</v>
       </c>
-      <c r="C30" t="s">
-        <v>279</v>
-      </c>
       <c r="D30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E30">
         <v>1.385629</v>
@@ -5449,22 +5449,22 @@
       <c r="AJ30">
         <v>1.956607</v>
       </c>
-      <c r="AK30" s="40">
+      <c r="AK30" s="34">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" t="s">
         <v>280</v>
       </c>
-      <c r="C31" t="s">
-        <v>281</v>
-      </c>
       <c r="D31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E31">
         <v>125.032196</v>
@@ -5562,30 +5562,30 @@
       <c r="AJ31">
         <v>148.87333699999999</v>
       </c>
-      <c r="AK31" s="40">
+      <c r="AK31" s="34">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" t="s">
         <v>282</v>
-      </c>
-      <c r="C32" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" t="s">
         <v>284</v>
       </c>
-      <c r="C33" t="s">
-        <v>285</v>
-      </c>
       <c r="D33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E33">
         <v>94.697258000000005</v>
@@ -5683,22 +5683,22 @@
       <c r="AJ33">
         <v>103.585587</v>
       </c>
-      <c r="AK33" s="40">
+      <c r="AK33" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" t="s">
         <v>286</v>
       </c>
-      <c r="C34" t="s">
-        <v>287</v>
-      </c>
       <c r="D34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E34">
         <v>47.028514999999999</v>
@@ -5796,22 +5796,22 @@
       <c r="AJ34">
         <v>61.058453</v>
       </c>
-      <c r="AK34" s="40">
+      <c r="AK34" s="34">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="35" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B35" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" t="s">
         <v>288</v>
       </c>
-      <c r="C35" t="s">
-        <v>289</v>
-      </c>
       <c r="D35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E35">
         <v>7.0283059999999997</v>
@@ -5909,22 +5909,22 @@
       <c r="AJ35">
         <v>5.478332</v>
       </c>
-      <c r="AK35" s="40">
+      <c r="AK35" s="34">
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="36" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s">
+        <v>289</v>
+      </c>
+      <c r="C36" t="s">
         <v>290</v>
       </c>
-      <c r="C36" t="s">
-        <v>291</v>
-      </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E36">
         <v>148.754074</v>
@@ -6022,30 +6022,30 @@
       <c r="AJ36">
         <v>170.12237500000001</v>
       </c>
-      <c r="AK36" s="40">
+      <c r="AK36" s="34">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" t="s">
         <v>292</v>
-      </c>
-      <c r="C37" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" t="s">
         <v>294</v>
       </c>
-      <c r="C38" t="s">
-        <v>295</v>
-      </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E38">
         <v>80.303070000000005</v>
@@ -6143,22 +6143,22 @@
       <c r="AJ38">
         <v>119.891441</v>
       </c>
-      <c r="AK38" s="40">
+      <c r="AK38" s="34">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" t="s">
         <v>296</v>
       </c>
-      <c r="C39" t="s">
-        <v>297</v>
-      </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E39">
         <v>18.848210999999999</v>
@@ -6256,22 +6256,22 @@
       <c r="AJ39">
         <v>28.797094000000001</v>
       </c>
-      <c r="AK39" s="40">
+      <c r="AK39" s="34">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="40" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" t="s">
         <v>298</v>
       </c>
-      <c r="C40" t="s">
-        <v>299</v>
-      </c>
       <c r="D40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E40">
         <v>99.151283000000006</v>
@@ -6369,30 +6369,30 @@
       <c r="AJ40">
         <v>148.68853799999999</v>
       </c>
-      <c r="AK40" s="40">
+      <c r="AK40" s="34">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" t="s">
         <v>300</v>
-      </c>
-      <c r="C41" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" t="s">
         <v>302</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>303</v>
       </c>
-      <c r="C42" t="s">
-        <v>304</v>
-      </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E42">
         <v>165.02848800000001</v>
@@ -6490,22 +6490,22 @@
       <c r="AJ42">
         <v>201.93606600000001</v>
       </c>
-      <c r="AK42" s="40">
+      <c r="AK42" s="34">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" t="s">
         <v>305</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>306</v>
       </c>
-      <c r="C43" t="s">
-        <v>307</v>
-      </c>
       <c r="D43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E43">
         <v>43.544589999999999</v>
@@ -6603,7 +6603,7 @@
       <c r="AJ43">
         <v>51.335728000000003</v>
       </c>
-      <c r="AK43" s="40">
+      <c r="AK43" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -6612,29 +6612,29 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" t="s">
         <v>310</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>311</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>312</v>
-      </c>
-      <c r="D46" t="s">
-        <v>313</v>
       </c>
       <c r="E46">
         <v>8.0663889999999991</v>
@@ -6732,22 +6732,22 @@
       <c r="AJ46">
         <v>8.6568339999999999</v>
       </c>
-      <c r="AK46" s="40">
+      <c r="AK46" s="34">
         <v>2E-3</v>
       </c>
     </row>
     <row r="47" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>313</v>
+      </c>
+      <c r="B47" t="s">
         <v>314</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>315</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>316</v>
-      </c>
-      <c r="D47" t="s">
-        <v>317</v>
       </c>
       <c r="E47">
         <v>1.3</v>
@@ -6845,22 +6845,22 @@
       <c r="AJ47">
         <v>1.3</v>
       </c>
-      <c r="AK47" s="40">
+      <c r="AK47" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>317</v>
+      </c>
+      <c r="B48" t="s">
         <v>318</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>319</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>320</v>
-      </c>
-      <c r="D48" t="s">
-        <v>321</v>
       </c>
       <c r="E48">
         <v>3.3528259999999999</v>
@@ -6958,22 +6958,22 @@
       <c r="AJ48">
         <v>3.6782319999999999</v>
       </c>
-      <c r="AK48" s="40">
+      <c r="AK48" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>321</v>
+      </c>
+      <c r="B49" t="s">
         <v>322</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>323</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>324</v>
-      </c>
-      <c r="D49" t="s">
-        <v>325</v>
       </c>
       <c r="E49">
         <v>0.815604</v>
@@ -7071,22 +7071,22 @@
       <c r="AJ49">
         <v>0.86704700000000001</v>
       </c>
-      <c r="AK49" s="40">
+      <c r="AK49" s="34">
         <v>2E-3</v>
       </c>
     </row>
     <row r="50" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>325</v>
+      </c>
+      <c r="B50" t="s">
         <v>326</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>327</v>
       </c>
-      <c r="C50" t="s">
-        <v>328</v>
-      </c>
       <c r="D50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E50">
         <v>0.83301199999999997</v>
@@ -7184,30 +7184,30 @@
       <c r="AJ50">
         <v>0.84557300000000002</v>
       </c>
-      <c r="AK50" s="40">
+      <c r="AK50" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C51" t="s">
         <v>329</v>
-      </c>
-      <c r="C51" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>330</v>
+      </c>
+      <c r="B52" t="s">
         <v>331</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>332</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>333</v>
-      </c>
-      <c r="D52" t="s">
-        <v>334</v>
       </c>
       <c r="E52">
         <v>13.628468</v>
@@ -7305,22 +7305,22 @@
       <c r="AJ52">
         <v>15.652231</v>
       </c>
-      <c r="AK52" s="40">
+      <c r="AK52" s="34">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B53" t="s">
+        <v>334</v>
+      </c>
+      <c r="C53" t="s">
         <v>335</v>
       </c>
-      <c r="C53" t="s">
-        <v>336</v>
-      </c>
       <c r="D53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E53">
         <v>0.6</v>
@@ -7418,22 +7418,22 @@
       <c r="AJ53">
         <v>0.7</v>
       </c>
-      <c r="AK53" s="40">
+      <c r="AK53" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>336</v>
+      </c>
+      <c r="B54" t="s">
         <v>337</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>338</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>339</v>
-      </c>
-      <c r="D54" t="s">
-        <v>340</v>
       </c>
       <c r="E54">
         <v>15.019470999999999</v>
@@ -7531,22 +7531,22 @@
       <c r="AJ54">
         <v>17.238329</v>
       </c>
-      <c r="AK54" s="40">
+      <c r="AK54" s="34">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>340</v>
+      </c>
+      <c r="B55" t="s">
         <v>341</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>342</v>
       </c>
-      <c r="C55" t="s">
-        <v>343</v>
-      </c>
       <c r="D55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E55">
         <v>13.063986999999999</v>
@@ -7644,22 +7644,22 @@
       <c r="AJ55">
         <v>15.165412999999999</v>
       </c>
-      <c r="AK55" s="40">
+      <c r="AK55" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>343</v>
+      </c>
+      <c r="B56" t="s">
         <v>344</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>345</v>
       </c>
-      <c r="C56" t="s">
-        <v>346</v>
-      </c>
       <c r="D56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E56">
         <v>11.089376</v>
@@ -7757,30 +7757,30 @@
       <c r="AJ56">
         <v>12.159905999999999</v>
       </c>
-      <c r="AK56" s="40">
+      <c r="AK56" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>346</v>
+      </c>
+      <c r="C57" t="s">
         <v>347</v>
-      </c>
-      <c r="C57" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>348</v>
+      </c>
+      <c r="B58" t="s">
         <v>349</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>350</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>351</v>
-      </c>
-      <c r="D58" t="s">
-        <v>352</v>
       </c>
       <c r="E58">
         <v>0.90388299999999999</v>
@@ -7878,22 +7878,22 @@
       <c r="AJ58">
         <v>0.96645300000000001</v>
       </c>
-      <c r="AK58" s="40">
+      <c r="AK58" s="34">
         <v>2E-3</v>
       </c>
     </row>
     <row r="59" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>352</v>
+      </c>
+      <c r="B59" t="s">
         <v>353</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>354</v>
       </c>
-      <c r="C59" t="s">
-        <v>355</v>
-      </c>
       <c r="D59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E59">
         <v>0.602607</v>
@@ -7991,22 +7991,22 @@
       <c r="AJ59">
         <v>0.63325699999999996</v>
       </c>
-      <c r="AK59" s="40">
+      <c r="AK59" s="34">
         <v>2E-3</v>
       </c>
     </row>
     <row r="60" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" t="s">
         <v>356</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>357</v>
       </c>
-      <c r="C60" t="s">
-        <v>358</v>
-      </c>
       <c r="D60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E60">
         <v>0.56606599999999996</v>
@@ -8104,22 +8104,22 @@
       <c r="AJ60">
         <v>0.66627599999999998</v>
       </c>
-      <c r="AK60" s="40">
+      <c r="AK60" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="61" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>358</v>
+      </c>
+      <c r="B61" t="s">
         <v>359</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>360</v>
       </c>
-      <c r="C61" t="s">
-        <v>361</v>
-      </c>
       <c r="D61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E61">
         <v>0.59544699999999995</v>
@@ -8217,30 +8217,30 @@
       <c r="AJ61">
         <v>0.627135</v>
       </c>
-      <c r="AK61" s="40">
+      <c r="AK61" s="34">
         <v>2E-3</v>
       </c>
     </row>
     <row r="62" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>361</v>
+      </c>
+      <c r="C62" t="s">
         <v>362</v>
-      </c>
-      <c r="C62" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="63" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B63" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" t="s">
         <v>364</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>365</v>
-      </c>
-      <c r="D63" t="s">
-        <v>366</v>
       </c>
       <c r="E63">
         <v>631.17083700000001</v>
@@ -8338,22 +8338,22 @@
       <c r="AJ63">
         <v>504.37832600000002</v>
       </c>
-      <c r="AK63" s="40">
+      <c r="AK63" s="34">
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="64" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B64" t="s">
+        <v>366</v>
+      </c>
+      <c r="C64" t="s">
         <v>367</v>
       </c>
-      <c r="C64" t="s">
-        <v>368</v>
-      </c>
       <c r="D64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E64">
         <v>463.170593</v>
@@ -8451,38 +8451,38 @@
       <c r="AJ64">
         <v>374.22399899999999</v>
       </c>
-      <c r="AK64" s="40">
+      <c r="AK64" s="34">
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="65" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C65" t="s">
         <v>369</v>
-      </c>
-      <c r="C65" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>370</v>
+      </c>
+      <c r="C66" t="s">
         <v>371</v>
-      </c>
-      <c r="C66" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67" t="s">
         <v>373</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>374</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>375</v>
-      </c>
-      <c r="D67" t="s">
-        <v>376</v>
       </c>
       <c r="E67">
         <v>0.96926999999999996</v>
@@ -8580,22 +8580,22 @@
       <c r="AJ67">
         <v>0.741672</v>
       </c>
-      <c r="AK67" s="40">
+      <c r="AK67" s="34">
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="68" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>376</v>
+      </c>
+      <c r="B68" t="s">
         <v>377</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>378</v>
       </c>
-      <c r="C68" t="s">
-        <v>379</v>
-      </c>
       <c r="D68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E68">
         <v>0.890374</v>
@@ -8693,22 +8693,22 @@
       <c r="AJ68">
         <v>0.84420700000000004</v>
       </c>
-      <c r="AK68" s="40">
+      <c r="AK68" s="34">
         <v>-2E-3</v>
       </c>
     </row>
     <row r="69" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>379</v>
+      </c>
+      <c r="B69" t="s">
         <v>380</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>381</v>
       </c>
-      <c r="C69" t="s">
-        <v>382</v>
-      </c>
       <c r="D69" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E69">
         <v>0.96527600000000002</v>
@@ -8806,30 +8806,30 @@
       <c r="AJ69">
         <v>0.77968499999999996</v>
       </c>
-      <c r="AK69" s="40">
+      <c r="AK69" s="34">
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="70" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C70" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B71" t="s">
+        <v>383</v>
+      </c>
+      <c r="C71" t="s">
         <v>384</v>
       </c>
-      <c r="C71" t="s">
-        <v>385</v>
-      </c>
       <c r="D71" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E71">
         <v>0.98990299999999998</v>
@@ -8927,22 +8927,22 @@
       <c r="AJ71">
         <v>0.91039899999999996</v>
       </c>
-      <c r="AK71" s="40">
+      <c r="AK71" s="34">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="72" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B72" t="s">
+        <v>385</v>
+      </c>
+      <c r="C72" t="s">
         <v>386</v>
       </c>
-      <c r="C72" t="s">
-        <v>387</v>
-      </c>
       <c r="D72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E72">
         <v>0.99944699999999997</v>
@@ -9040,22 +9040,22 @@
       <c r="AJ72">
         <v>0.98091600000000001</v>
       </c>
-      <c r="AK72" s="40">
+      <c r="AK72" s="34">
         <v>-1E-3</v>
       </c>
     </row>
     <row r="73" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B73" t="s">
+        <v>387</v>
+      </c>
+      <c r="C73" t="s">
         <v>388</v>
       </c>
-      <c r="C73" t="s">
-        <v>389</v>
-      </c>
       <c r="D73" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E73">
         <v>0.99028300000000002</v>
@@ -9153,46 +9153,46 @@
       <c r="AJ73">
         <v>0.92871099999999995</v>
       </c>
-      <c r="AK73" s="40">
+      <c r="AK73" s="34">
         <v>-2E-3</v>
       </c>
     </row>
     <row r="74" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>389</v>
+      </c>
+      <c r="C74" t="s">
         <v>390</v>
-      </c>
-      <c r="C74" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="75" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>391</v>
+      </c>
+      <c r="C75" t="s">
         <v>392</v>
-      </c>
-      <c r="C75" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C76" t="s">
         <v>394</v>
-      </c>
-      <c r="C76" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>395</v>
+      </c>
+      <c r="B77" t="s">
         <v>396</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>397</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>398</v>
-      </c>
-      <c r="D77" t="s">
-        <v>399</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -9296,16 +9296,16 @@
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>399</v>
+      </c>
+      <c r="B78" t="s">
         <v>400</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>401</v>
       </c>
-      <c r="C78" t="s">
-        <v>402</v>
-      </c>
       <c r="D78" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E78">
         <v>15.371161000000001</v>
@@ -9403,135 +9403,135 @@
       <c r="AJ78">
         <v>95.641777000000005</v>
       </c>
-      <c r="AK78" s="40">
+      <c r="AK78" s="34">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:37" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
+    <row r="79" spans="1:37" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B79" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="B79" s="39" t="s">
+      <c r="C79" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="C79" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="D79" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="E79" s="39">
+      <c r="D79" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="E79" s="33">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="F79" s="39">
+      <c r="F79" s="33">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="G79" s="39">
+      <c r="G79" s="33">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="H79" s="39">
+      <c r="H79" s="33">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="I79" s="39">
+      <c r="I79" s="33">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="J79" s="39">
+      <c r="J79" s="33">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="K79" s="39">
+      <c r="K79" s="33">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="L79" s="39">
+      <c r="L79" s="33">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="M79" s="39">
+      <c r="M79" s="33">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="N79" s="39">
+      <c r="N79" s="33">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="O79" s="39">
+      <c r="O79" s="33">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="P79" s="39">
+      <c r="P79" s="33">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="Q79" s="39">
+      <c r="Q79" s="33">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="R79" s="39">
+      <c r="R79" s="33">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="S79" s="39">
+      <c r="S79" s="33">
         <v>1.4081E-2</v>
       </c>
-      <c r="T79" s="39">
+      <c r="T79" s="33">
         <v>1.4083999999999999E-2</v>
       </c>
-      <c r="U79" s="39">
+      <c r="U79" s="33">
         <v>1.409E-2</v>
       </c>
-      <c r="V79" s="39">
+      <c r="V79" s="33">
         <v>1.4102E-2</v>
       </c>
-      <c r="W79" s="39">
+      <c r="W79" s="33">
         <v>1.4123999999999999E-2</v>
       </c>
-      <c r="X79" s="39">
+      <c r="X79" s="33">
         <v>1.4165000000000001E-2</v>
       </c>
-      <c r="Y79" s="39">
+      <c r="Y79" s="33">
         <v>1.4241E-2</v>
       </c>
-      <c r="Z79" s="39">
+      <c r="Z79" s="33">
         <v>1.438E-2</v>
       </c>
-      <c r="AA79" s="39">
+      <c r="AA79" s="33">
         <v>1.4635E-2</v>
       </c>
-      <c r="AB79" s="39">
+      <c r="AB79" s="33">
         <v>1.489E-2</v>
       </c>
-      <c r="AC79" s="39">
+      <c r="AC79" s="33">
         <v>1.5147000000000001E-2</v>
       </c>
-      <c r="AD79" s="39">
+      <c r="AD79" s="33">
         <v>1.5407000000000001E-2</v>
       </c>
-      <c r="AE79" s="39">
+      <c r="AE79" s="33">
         <v>1.567E-2</v>
       </c>
-      <c r="AF79" s="39">
+      <c r="AF79" s="33">
         <v>1.5934E-2</v>
       </c>
-      <c r="AG79" s="39">
+      <c r="AG79" s="33">
         <v>1.6201E-2</v>
       </c>
-      <c r="AH79" s="39">
+      <c r="AH79" s="33">
         <v>1.6469000000000001E-2</v>
       </c>
-      <c r="AI79" s="39">
+      <c r="AI79" s="33">
         <v>1.6737999999999999E-2</v>
       </c>
-      <c r="AJ79" s="39">
+      <c r="AJ79" s="33">
         <v>1.7007999999999999E-2</v>
       </c>
-      <c r="AK79" s="41">
+      <c r="AK79" s="35">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
+        <v>405</v>
+      </c>
+      <c r="C80" t="s">
         <v>406</v>
       </c>
-      <c r="C80" t="s">
-        <v>407</v>
-      </c>
       <c r="D80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E80">
         <v>15.385241000000001</v>
@@ -9629,30 +9629,30 @@
       <c r="AJ80">
         <v>95.660247999999996</v>
       </c>
-      <c r="AK80" s="40">
+      <c r="AK80" s="34">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>407</v>
+      </c>
+      <c r="C81" t="s">
         <v>408</v>
-      </c>
-      <c r="C81" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B82" t="s">
+        <v>409</v>
+      </c>
+      <c r="C82" t="s">
         <v>410</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>411</v>
-      </c>
-      <c r="D82" t="s">
-        <v>412</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -9756,16 +9756,16 @@
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B83" t="s">
+        <v>412</v>
+      </c>
+      <c r="C83" t="s">
         <v>413</v>
       </c>
-      <c r="C83" t="s">
-        <v>414</v>
-      </c>
       <c r="D83" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E83">
         <v>21.794661000000001</v>
@@ -9863,22 +9863,22 @@
       <c r="AJ83">
         <v>127.679535</v>
       </c>
-      <c r="AK83" s="40">
+      <c r="AK83" s="34">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B84" t="s">
+        <v>414</v>
+      </c>
+      <c r="C84" t="s">
         <v>415</v>
       </c>
-      <c r="C84" t="s">
-        <v>416</v>
-      </c>
       <c r="D84" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E84">
         <v>1.8376E-2</v>
@@ -9976,22 +9976,22 @@
       <c r="AJ84">
         <v>2.137E-2</v>
       </c>
-      <c r="AK84" s="40">
+      <c r="AK84" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
+        <v>416</v>
+      </c>
+      <c r="C85" t="s">
         <v>417</v>
       </c>
-      <c r="C85" t="s">
-        <v>418</v>
-      </c>
       <c r="D85" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E85">
         <v>21.813036</v>
@@ -10089,30 +10089,30 @@
       <c r="AJ85">
         <v>127.704987</v>
       </c>
-      <c r="AK85" s="40">
+      <c r="AK85" s="34">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>418</v>
+      </c>
+      <c r="C86" t="s">
         <v>419</v>
-      </c>
-      <c r="C86" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>420</v>
+      </c>
+      <c r="B87" t="s">
         <v>421</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>422</v>
       </c>
-      <c r="C87" t="s">
-        <v>423</v>
-      </c>
       <c r="D87" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E87">
         <v>4.1850319999999996</v>
@@ -10210,22 +10210,22 @@
       <c r="AJ87">
         <v>38.177990000000001</v>
       </c>
-      <c r="AK87" s="40">
+      <c r="AK87" s="34">
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>423</v>
+      </c>
+      <c r="B88" t="s">
         <v>424</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>425</v>
       </c>
-      <c r="C88" t="s">
-        <v>426</v>
-      </c>
       <c r="D88" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E88">
         <v>17.628004000000001</v>
@@ -10323,30 +10323,30 @@
       <c r="AJ88">
         <v>89.527000000000001</v>
       </c>
-      <c r="AK88" s="40">
+      <c r="AK88" s="34">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>426</v>
+      </c>
+      <c r="C89" t="s">
         <v>427</v>
-      </c>
-      <c r="C89" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B90" t="s">
+        <v>428</v>
+      </c>
+      <c r="C90" t="s">
         <v>429</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>430</v>
-      </c>
-      <c r="D90" t="s">
-        <v>431</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -10450,16 +10450,16 @@
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B91" t="s">
+        <v>431</v>
+      </c>
+      <c r="C91" t="s">
         <v>432</v>
       </c>
-      <c r="C91" t="s">
-        <v>433</v>
-      </c>
       <c r="D91" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E91">
         <v>188.54324299999999</v>
@@ -10557,22 +10557,22 @@
       <c r="AJ91">
         <v>990.55920400000002</v>
       </c>
-      <c r="AK91" s="40">
+      <c r="AK91" s="34">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B92" t="s">
+        <v>433</v>
+      </c>
+      <c r="C92" t="s">
         <v>434</v>
       </c>
-      <c r="C92" t="s">
-        <v>435</v>
-      </c>
       <c r="D92" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E92">
         <v>0.17482800000000001</v>
@@ -10670,22 +10670,22 @@
       <c r="AJ92">
         <v>0.175094</v>
       </c>
-      <c r="AK92" s="40">
+      <c r="AK92" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B93" t="s">
+        <v>435</v>
+      </c>
+      <c r="C93" t="s">
         <v>436</v>
       </c>
-      <c r="C93" t="s">
-        <v>437</v>
-      </c>
       <c r="D93" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E93">
         <v>188.71807899999999</v>
@@ -10783,7 +10783,7 @@
       <c r="AJ93">
         <v>990.76495399999999</v>
       </c>
-      <c r="AK93" s="40">
+      <c r="AK93" s="34">
         <v>5.5E-2</v>
       </c>
     </row>
@@ -10815,33 +10815,33 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
         <v>212</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>213</v>
-      </c>
-      <c r="D5" t="s">
-        <v>214</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -10940,7 +10940,7 @@
         <v>2050</v>
       </c>
       <c r="AK5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -10948,29 +10948,29 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" t="s">
         <v>442</v>
-      </c>
-      <c r="C7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B8" t="s">
         <v>444</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>445</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>446</v>
-      </c>
-      <c r="D8" t="s">
-        <v>447</v>
       </c>
       <c r="E8">
         <v>0.67537800000000003</v>
@@ -11068,22 +11068,22 @@
       <c r="AJ8">
         <v>0.68208299999999999</v>
       </c>
-      <c r="AK8" s="40">
+      <c r="AK8" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B9" t="s">
         <v>448</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>449</v>
       </c>
-      <c r="C9" t="s">
-        <v>450</v>
-      </c>
       <c r="D9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E9">
         <v>1.1211500000000001</v>
@@ -11181,22 +11181,22 @@
       <c r="AJ9">
         <v>1.230343</v>
       </c>
-      <c r="AK9" s="40">
+      <c r="AK9" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" t="s">
         <v>451</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>452</v>
       </c>
-      <c r="C10" t="s">
-        <v>453</v>
-      </c>
       <c r="D10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E10">
         <v>0.34264699999999998</v>
@@ -11294,22 +11294,22 @@
       <c r="AJ10">
         <v>0.40541500000000003</v>
       </c>
-      <c r="AK10" s="40">
+      <c r="AK10" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B11" t="s">
         <v>454</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>455</v>
       </c>
-      <c r="C11" t="s">
-        <v>456</v>
-      </c>
       <c r="D11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E11">
         <v>0.607456</v>
@@ -11407,22 +11407,22 @@
       <c r="AJ11">
         <v>0.75792300000000001</v>
       </c>
-      <c r="AK11" s="40">
+      <c r="AK11" s="34">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" t="s">
         <v>457</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>458</v>
       </c>
-      <c r="C12" t="s">
-        <v>459</v>
-      </c>
       <c r="D12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E12">
         <v>0.56497399999999998</v>
@@ -11520,22 +11520,22 @@
       <c r="AJ12">
         <v>0.66776899999999995</v>
       </c>
-      <c r="AK12" s="40">
+      <c r="AK12" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" t="s">
         <v>460</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>461</v>
       </c>
-      <c r="C13" t="s">
-        <v>462</v>
-      </c>
       <c r="D13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E13">
         <v>0.64757600000000004</v>
@@ -11633,22 +11633,22 @@
       <c r="AJ13">
         <v>0.87648000000000004</v>
       </c>
-      <c r="AK13" s="40">
+      <c r="AK13" s="34">
         <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B14" t="s">
         <v>463</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>464</v>
       </c>
-      <c r="C14" t="s">
-        <v>465</v>
-      </c>
       <c r="D14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E14">
         <v>0.92101599999999995</v>
@@ -11746,22 +11746,22 @@
       <c r="AJ14">
         <v>1.081121</v>
       </c>
-      <c r="AK14" s="40">
+      <c r="AK14" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B15" t="s">
         <v>466</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>467</v>
       </c>
-      <c r="C15" t="s">
-        <v>468</v>
-      </c>
       <c r="D15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E15">
         <v>0.62927</v>
@@ -11859,22 +11859,22 @@
       <c r="AJ15">
         <v>0.69670299999999996</v>
       </c>
-      <c r="AK15" s="40">
+      <c r="AK15" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>468</v>
+      </c>
+      <c r="B16" t="s">
         <v>469</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>470</v>
       </c>
-      <c r="C16" t="s">
-        <v>471</v>
-      </c>
       <c r="D16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E16">
         <v>1.4955579999999999</v>
@@ -11972,22 +11972,22 @@
       <c r="AJ16">
         <v>1.633195</v>
       </c>
-      <c r="AK16" s="40">
+      <c r="AK16" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>471</v>
+      </c>
+      <c r="B17" t="s">
         <v>472</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>473</v>
       </c>
-      <c r="C17" t="s">
-        <v>474</v>
-      </c>
       <c r="D17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E17">
         <v>0.42604199999999998</v>
@@ -12085,22 +12085,22 @@
       <c r="AJ17">
         <v>0.51752399999999998</v>
       </c>
-      <c r="AK17" s="40">
+      <c r="AK17" s="34">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>474</v>
+      </c>
+      <c r="B18" t="s">
         <v>475</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>476</v>
       </c>
-      <c r="C18" t="s">
-        <v>477</v>
-      </c>
       <c r="D18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E18">
         <v>0.48264800000000002</v>
@@ -12198,22 +12198,22 @@
       <c r="AJ18">
         <v>0.58579599999999998</v>
       </c>
-      <c r="AK18" s="40">
+      <c r="AK18" s="34">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
+        <v>477</v>
+      </c>
+      <c r="C19" t="s">
         <v>478</v>
       </c>
-      <c r="C19" t="s">
-        <v>479</v>
-      </c>
       <c r="D19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E19">
         <v>7.9137139999999997</v>
@@ -12311,7 +12311,7 @@
       <c r="AJ19">
         <v>9.1343530000000008</v>
       </c>
-      <c r="AK19" s="40">
+      <c r="AK19" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -12320,29 +12320,29 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>480</v>
+      </c>
+      <c r="C21" t="s">
         <v>481</v>
-      </c>
-      <c r="C21" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B22" t="s">
+        <v>482</v>
+      </c>
+      <c r="C22" t="s">
         <v>483</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>484</v>
-      </c>
-      <c r="D22" t="s">
-        <v>485</v>
       </c>
       <c r="E22">
         <v>10.348913</v>
@@ -12440,22 +12440,22 @@
       <c r="AJ22">
         <v>12.472568000000001</v>
       </c>
-      <c r="AK22" s="40">
+      <c r="AK22" s="34">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B23" t="s">
+        <v>485</v>
+      </c>
+      <c r="C23" t="s">
         <v>486</v>
       </c>
-      <c r="C23" t="s">
-        <v>487</v>
-      </c>
       <c r="D23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E23">
         <v>13.216391</v>
@@ -12553,22 +12553,22 @@
       <c r="AJ23">
         <v>17.715896999999998</v>
       </c>
-      <c r="AK23" s="40">
+      <c r="AK23" s="34">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B24" t="s">
+        <v>487</v>
+      </c>
+      <c r="C24" t="s">
         <v>488</v>
       </c>
-      <c r="C24" t="s">
-        <v>489</v>
-      </c>
       <c r="D24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E24">
         <v>1.3063400000000001</v>
@@ -12666,22 +12666,22 @@
       <c r="AJ24">
         <v>1.717857</v>
       </c>
-      <c r="AK24" s="40">
+      <c r="AK24" s="34">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B25" t="s">
+        <v>489</v>
+      </c>
+      <c r="C25" t="s">
         <v>490</v>
       </c>
-      <c r="C25" t="s">
-        <v>491</v>
-      </c>
       <c r="D25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E25">
         <v>1.9086799999999999</v>
@@ -12779,22 +12779,22 @@
       <c r="AJ25">
         <v>2.5341260000000001</v>
       </c>
-      <c r="AK25" s="40">
+      <c r="AK25" s="34">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B26" t="s">
+        <v>491</v>
+      </c>
+      <c r="C26" t="s">
         <v>492</v>
       </c>
-      <c r="C26" t="s">
-        <v>493</v>
-      </c>
       <c r="D26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E26">
         <v>2.5964450000000001</v>
@@ -12892,22 +12892,22 @@
       <c r="AJ26">
         <v>3.706159</v>
       </c>
-      <c r="AK26" s="40">
+      <c r="AK26" s="34">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B27" t="s">
+        <v>493</v>
+      </c>
+      <c r="C27" t="s">
         <v>494</v>
       </c>
-      <c r="C27" t="s">
-        <v>495</v>
-      </c>
       <c r="D27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E27">
         <v>6.3980040000000002</v>
@@ -13005,22 +13005,22 @@
       <c r="AJ27">
         <v>8.931025</v>
       </c>
-      <c r="AK27" s="40">
+      <c r="AK27" s="34">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B28" t="s">
+        <v>495</v>
+      </c>
+      <c r="C28" t="s">
         <v>496</v>
       </c>
-      <c r="C28" t="s">
-        <v>497</v>
-      </c>
       <c r="D28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E28">
         <v>9.4917409999999993</v>
@@ -13118,22 +13118,22 @@
       <c r="AJ28">
         <v>11.929138999999999</v>
       </c>
-      <c r="AK28" s="40">
+      <c r="AK28" s="34">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C29" t="s">
         <v>498</v>
       </c>
-      <c r="C29" t="s">
-        <v>499</v>
-      </c>
       <c r="D29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E29">
         <v>8.9690670000000008</v>
@@ -13231,22 +13231,22 @@
       <c r="AJ29">
         <v>11.749112999999999</v>
       </c>
-      <c r="AK29" s="40">
+      <c r="AK29" s="34">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B30" t="s">
+        <v>499</v>
+      </c>
+      <c r="C30" t="s">
         <v>500</v>
       </c>
-      <c r="C30" t="s">
-        <v>501</v>
-      </c>
       <c r="D30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E30">
         <v>17.083445000000001</v>
@@ -13344,22 +13344,22 @@
       <c r="AJ30">
         <v>22.831479999999999</v>
       </c>
-      <c r="AK30" s="40">
+      <c r="AK30" s="34">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B31" t="s">
+        <v>501</v>
+      </c>
+      <c r="C31" t="s">
         <v>502</v>
       </c>
-      <c r="C31" t="s">
-        <v>503</v>
-      </c>
       <c r="D31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E31">
         <v>14.266182000000001</v>
@@ -13457,22 +13457,22 @@
       <c r="AJ31">
         <v>20.522822999999999</v>
       </c>
-      <c r="AK31" s="40">
+      <c r="AK31" s="34">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C32" t="s">
         <v>504</v>
       </c>
-      <c r="C32" t="s">
-        <v>505</v>
-      </c>
       <c r="D32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E32">
         <v>7.2390049999999997</v>
@@ -13570,22 +13570,22 @@
       <c r="AJ32">
         <v>10.814033999999999</v>
       </c>
-      <c r="AK32" s="40">
+      <c r="AK32" s="34">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C33" t="s">
         <v>506</v>
       </c>
-      <c r="C33" t="s">
-        <v>507</v>
-      </c>
       <c r="D33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E33">
         <v>92.824211000000005</v>
@@ -13683,7 +13683,7 @@
       <c r="AJ33">
         <v>124.924217</v>
       </c>
-      <c r="AK33" s="40">
+      <c r="AK33" s="34">
         <v>0.01</v>
       </c>
     </row>
@@ -13692,29 +13692,29 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
+        <v>509</v>
+      </c>
+      <c r="C36" t="s">
         <v>510</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>511</v>
-      </c>
-      <c r="D36" t="s">
-        <v>512</v>
       </c>
       <c r="E36">
         <v>1.606077</v>
@@ -13812,22 +13812,22 @@
       <c r="AJ36">
         <v>1.679006</v>
       </c>
-      <c r="AK36" s="40">
+      <c r="AK36" s="34">
         <v>1E-3</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s">
+        <v>512</v>
+      </c>
+      <c r="C37" t="s">
         <v>513</v>
       </c>
-      <c r="C37" t="s">
-        <v>514</v>
-      </c>
       <c r="D37" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E37">
         <v>0.78704600000000002</v>
@@ -13925,22 +13925,22 @@
       <c r="AJ37">
         <v>0.79751799999999995</v>
       </c>
-      <c r="AK37" s="40">
+      <c r="AK37" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38" t="s">
+        <v>514</v>
+      </c>
+      <c r="C38" t="s">
         <v>515</v>
       </c>
-      <c r="C38" t="s">
-        <v>516</v>
-      </c>
       <c r="D38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E38">
         <v>0.80861499999999997</v>
@@ -14038,30 +14038,30 @@
       <c r="AJ38">
         <v>0.82384599999999997</v>
       </c>
-      <c r="AK38" s="40">
+      <c r="AK38" s="34">
         <v>1E-3</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B40" t="s">
+        <v>517</v>
+      </c>
+      <c r="C40" t="s">
         <v>518</v>
       </c>
-      <c r="C40" t="s">
-        <v>519</v>
-      </c>
       <c r="D40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E40">
         <v>3.511387</v>
@@ -14159,22 +14159,22 @@
       <c r="AJ40">
         <v>4.2447090000000003</v>
       </c>
-      <c r="AK40" s="40">
+      <c r="AK40" s="34">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s">
+        <v>519</v>
+      </c>
+      <c r="C41" t="s">
         <v>520</v>
       </c>
-      <c r="C41" t="s">
-        <v>521</v>
-      </c>
       <c r="D41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E41">
         <v>0.74804000000000004</v>
@@ -14272,30 +14272,30 @@
       <c r="AJ41">
         <v>0.99465899999999996</v>
       </c>
-      <c r="AK41" s="40">
+      <c r="AK41" s="34">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C42" t="s">
         <v>522</v>
-      </c>
-      <c r="C42" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
+        <v>523</v>
+      </c>
+      <c r="C43" t="s">
         <v>524</v>
       </c>
-      <c r="C43" t="s">
-        <v>525</v>
-      </c>
       <c r="D43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E43">
         <v>1.112897</v>
@@ -14393,22 +14393,22 @@
       <c r="AJ43">
         <v>1.3555489999999999</v>
       </c>
-      <c r="AK43" s="40">
+      <c r="AK43" s="34">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s">
+        <v>525</v>
+      </c>
+      <c r="C44" t="s">
         <v>526</v>
       </c>
-      <c r="C44" t="s">
-        <v>527</v>
-      </c>
       <c r="D44" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E44">
         <v>0.88002899999999995</v>
@@ -14506,22 +14506,22 @@
       <c r="AJ44">
         <v>0.94796000000000002</v>
       </c>
-      <c r="AK44" s="40">
+      <c r="AK44" s="34">
         <v>2E-3</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B45" t="s">
+        <v>527</v>
+      </c>
+      <c r="C45" t="s">
         <v>528</v>
       </c>
-      <c r="C45" t="s">
-        <v>529</v>
-      </c>
       <c r="D45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E45">
         <v>0.80422899999999997</v>
@@ -14619,30 +14619,30 @@
       <c r="AJ45">
         <v>0.819017</v>
       </c>
-      <c r="AK45" s="40">
+      <c r="AK45" s="34">
         <v>1E-3</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>529</v>
+      </c>
+      <c r="C46" t="s">
         <v>530</v>
-      </c>
-      <c r="C46" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
+        <v>531</v>
+      </c>
+      <c r="C47" t="s">
         <v>532</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>533</v>
-      </c>
-      <c r="D47" t="s">
-        <v>534</v>
       </c>
       <c r="E47">
         <v>0.54326700000000006</v>
@@ -14740,30 +14740,30 @@
       <c r="AJ47">
         <v>1.0769310000000001</v>
       </c>
-      <c r="AK47" s="40">
+      <c r="AK47" s="34">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>534</v>
+      </c>
+      <c r="C48" t="s">
         <v>535</v>
-      </c>
-      <c r="C48" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
+        <v>536</v>
+      </c>
+      <c r="C49" t="s">
         <v>537</v>
       </c>
-      <c r="C49" t="s">
-        <v>538</v>
-      </c>
       <c r="D49" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E49">
         <v>0.69145400000000001</v>
@@ -14861,22 +14861,22 @@
       <c r="AJ49">
         <v>0.69958100000000001</v>
       </c>
-      <c r="AK49" s="40">
+      <c r="AK49" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s">
+        <v>538</v>
+      </c>
+      <c r="C50" t="s">
         <v>539</v>
       </c>
-      <c r="C50" t="s">
-        <v>540</v>
-      </c>
       <c r="D50" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E50">
         <v>0.31666699999999998</v>
@@ -14974,38 +14974,38 @@
       <c r="AJ50">
         <v>0.31666699999999998</v>
       </c>
-      <c r="AK50" s="40">
+      <c r="AK50" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>540</v>
+      </c>
+      <c r="C51" t="s">
         <v>541</v>
-      </c>
-      <c r="C51" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>542</v>
+      </c>
+      <c r="C52" t="s">
         <v>543</v>
-      </c>
-      <c r="C52" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
+        <v>544</v>
+      </c>
+      <c r="C53" t="s">
         <v>545</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>546</v>
-      </c>
-      <c r="D53" t="s">
-        <v>547</v>
       </c>
       <c r="E53">
         <v>80.315101999999996</v>
@@ -15103,30 +15103,30 @@
       <c r="AJ53">
         <v>178.28268399999999</v>
       </c>
-      <c r="AK53" s="40">
+      <c r="AK53" s="34">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>547</v>
+      </c>
+      <c r="C54" t="s">
         <v>548</v>
-      </c>
-      <c r="C54" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
+        <v>549</v>
+      </c>
+      <c r="C55" t="s">
         <v>550</v>
       </c>
-      <c r="C55" t="s">
-        <v>551</v>
-      </c>
       <c r="D55" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E55">
         <v>2.659338</v>
@@ -15224,46 +15224,46 @@
       <c r="AJ55">
         <v>3.0836519999999998</v>
       </c>
-      <c r="AK55" s="40">
+      <c r="AK55" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C57" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C58" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>554</v>
+      </c>
+      <c r="B59" t="s">
         <v>555</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>556</v>
       </c>
-      <c r="C59" t="s">
-        <v>557</v>
-      </c>
       <c r="D59" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E59">
         <v>2.1495E-2</v>
@@ -15361,22 +15361,22 @@
       <c r="AJ59">
         <v>2.1495E-2</v>
       </c>
-      <c r="AK59" s="40">
+      <c r="AK59" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B60" t="s">
+        <v>557</v>
+      </c>
+      <c r="C60" t="s">
         <v>558</v>
       </c>
-      <c r="C60" t="s">
-        <v>559</v>
-      </c>
       <c r="D60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E60">
         <v>1.446728</v>
@@ -15474,22 +15474,22 @@
       <c r="AJ60">
         <v>2.005646</v>
       </c>
-      <c r="AK60" s="40">
+      <c r="AK60" s="34">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s">
+        <v>559</v>
+      </c>
+      <c r="C61" t="s">
         <v>560</v>
       </c>
-      <c r="C61" t="s">
-        <v>561</v>
-      </c>
       <c r="D61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E61">
         <v>14.908906999999999</v>
@@ -15587,22 +15587,22 @@
       <c r="AJ61">
         <v>39.456527999999999</v>
       </c>
-      <c r="AK61" s="40">
+      <c r="AK61" s="34">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s">
+        <v>561</v>
+      </c>
+      <c r="C62" t="s">
         <v>562</v>
       </c>
-      <c r="C62" t="s">
-        <v>563</v>
-      </c>
       <c r="D62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E62">
         <v>0.55488099999999996</v>
@@ -15700,22 +15700,22 @@
       <c r="AJ62">
         <v>0.56143299999999996</v>
       </c>
-      <c r="AK62" s="40">
+      <c r="AK62" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B63" t="s">
+        <v>563</v>
+      </c>
+      <c r="C63" t="s">
         <v>564</v>
       </c>
-      <c r="C63" t="s">
-        <v>565</v>
-      </c>
       <c r="D63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E63">
         <v>0.55637199999999998</v>
@@ -15813,22 +15813,22 @@
       <c r="AJ63">
         <v>0.55637199999999998</v>
       </c>
-      <c r="AK63" s="40">
+      <c r="AK63" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s">
+        <v>565</v>
+      </c>
+      <c r="C64" t="s">
         <v>566</v>
       </c>
-      <c r="C64" t="s">
-        <v>567</v>
-      </c>
       <c r="D64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E64">
         <v>17.488382000000001</v>
@@ -15926,30 +15926,30 @@
       <c r="AJ64">
         <v>42.601475000000001</v>
       </c>
-      <c r="AK64" s="40">
+      <c r="AK64" s="34">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C65" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B66" t="s">
+        <v>568</v>
+      </c>
+      <c r="C66" t="s">
         <v>569</v>
       </c>
-      <c r="C66" t="s">
-        <v>570</v>
-      </c>
       <c r="D66" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E66">
         <v>0.149925</v>
@@ -16047,22 +16047,22 @@
       <c r="AJ66">
         <v>0.149925</v>
       </c>
-      <c r="AK66" s="40">
+      <c r="AK66" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B67" t="s">
+        <v>570</v>
+      </c>
+      <c r="C67" t="s">
         <v>571</v>
       </c>
-      <c r="C67" t="s">
-        <v>572</v>
-      </c>
       <c r="D67" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E67">
         <v>10.090925</v>
@@ -16160,22 +16160,22 @@
       <c r="AJ67">
         <v>13.989379</v>
       </c>
-      <c r="AK67" s="40">
+      <c r="AK67" s="34">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B68" t="s">
+        <v>572</v>
+      </c>
+      <c r="C68" t="s">
         <v>573</v>
       </c>
-      <c r="C68" t="s">
-        <v>574</v>
-      </c>
       <c r="D68" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E68">
         <v>18.837548999999999</v>
@@ -16273,22 +16273,22 @@
       <c r="AJ68">
         <v>50.240952</v>
       </c>
-      <c r="AK68" s="40">
+      <c r="AK68" s="34">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B69" t="s">
+        <v>574</v>
+      </c>
+      <c r="C69" t="s">
         <v>575</v>
       </c>
-      <c r="C69" t="s">
-        <v>576</v>
-      </c>
       <c r="D69" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E69">
         <v>0.75530799999999998</v>
@@ -16386,22 +16386,22 @@
       <c r="AJ69">
         <v>0.76593999999999995</v>
       </c>
-      <c r="AK69" s="40">
+      <c r="AK69" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B70" t="s">
+        <v>576</v>
+      </c>
+      <c r="C70" t="s">
         <v>577</v>
       </c>
-      <c r="C70" t="s">
-        <v>578</v>
-      </c>
       <c r="D70" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E70">
         <v>3.977071</v>
@@ -16499,22 +16499,22 @@
       <c r="AJ70">
         <v>3.977071</v>
       </c>
-      <c r="AK70" s="40">
+      <c r="AK70" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s">
+        <v>578</v>
+      </c>
+      <c r="C71" t="s">
         <v>579</v>
       </c>
-      <c r="C71" t="s">
-        <v>580</v>
-      </c>
       <c r="D71" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E71">
         <v>33.810780000000001</v>
@@ -16612,30 +16612,30 @@
       <c r="AJ71">
         <v>69.123267999999996</v>
       </c>
-      <c r="AK71" s="40">
+      <c r="AK71" s="34">
         <v>2.3E-2</v>
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C72" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B73" t="s">
+        <v>581</v>
+      </c>
+      <c r="C73" t="s">
         <v>582</v>
       </c>
-      <c r="C73" t="s">
-        <v>583</v>
-      </c>
       <c r="D73" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E73">
         <v>8.7188599999999994</v>
@@ -16733,22 +16733,22 @@
       <c r="AJ73">
         <v>12.200373000000001</v>
       </c>
-      <c r="AK73" s="40">
+      <c r="AK73" s="34">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B74" t="s">
+        <v>583</v>
+      </c>
+      <c r="C74" t="s">
         <v>584</v>
       </c>
-      <c r="C74" t="s">
-        <v>585</v>
-      </c>
       <c r="D74" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E74">
         <v>25.091916999999999</v>
@@ -16846,30 +16846,30 @@
       <c r="AJ74">
         <v>56.922893999999999</v>
       </c>
-      <c r="AK74" s="40">
+      <c r="AK74" s="34">
         <v>2.7E-2</v>
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C75" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B76" t="s">
+        <v>586</v>
+      </c>
+      <c r="C76" t="s">
         <v>587</v>
       </c>
-      <c r="C76" t="s">
-        <v>588</v>
-      </c>
       <c r="D76" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E76">
         <v>1.542511</v>
@@ -16967,22 +16967,22 @@
       <c r="AJ76">
         <v>1.542511</v>
       </c>
-      <c r="AK76" s="40">
+      <c r="AK76" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B77" t="s">
+        <v>588</v>
+      </c>
+      <c r="C77" t="s">
         <v>589</v>
       </c>
-      <c r="C77" t="s">
-        <v>590</v>
-      </c>
       <c r="D77" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E77">
         <v>108.983902</v>
@@ -17080,22 +17080,22 @@
       <c r="AJ77">
         <v>147.924408</v>
       </c>
-      <c r="AK77" s="40">
+      <c r="AK77" s="34">
         <v>0.01</v>
       </c>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B78" t="s">
+        <v>590</v>
+      </c>
+      <c r="C78" t="s">
         <v>591</v>
       </c>
-      <c r="C78" t="s">
-        <v>592</v>
-      </c>
       <c r="D78" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E78">
         <v>162.35742200000001</v>
@@ -17193,22 +17193,22 @@
       <c r="AJ78">
         <v>395.91778599999998</v>
       </c>
-      <c r="AK78" s="40">
+      <c r="AK78" s="34">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B79" t="s">
+        <v>592</v>
+      </c>
+      <c r="C79" t="s">
         <v>593</v>
       </c>
-      <c r="C79" t="s">
-        <v>594</v>
-      </c>
       <c r="D79" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E79">
         <v>7.0705559999999998</v>
@@ -17306,22 +17306,22 @@
       <c r="AJ79">
         <v>6.275703</v>
       </c>
-      <c r="AK79" s="40">
+      <c r="AK79" s="34">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B80" t="s">
+        <v>594</v>
+      </c>
+      <c r="C80" t="s">
         <v>595</v>
       </c>
-      <c r="C80" t="s">
-        <v>596</v>
-      </c>
       <c r="D80" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E80">
         <v>89.515326999999999</v>
@@ -17419,22 +17419,22 @@
       <c r="AJ80">
         <v>89.515326999999999</v>
       </c>
-      <c r="AK80" s="40">
+      <c r="AK80" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
+        <v>596</v>
+      </c>
+      <c r="C81" t="s">
         <v>597</v>
       </c>
-      <c r="C81" t="s">
-        <v>598</v>
-      </c>
       <c r="D81" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E81">
         <v>369.46972699999998</v>
@@ -17532,7 +17532,7 @@
       <c r="AJ81">
         <v>641.17571999999996</v>
       </c>
-      <c r="AK81" s="40">
+      <c r="AK81" s="34">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -17557,66 +17557,66 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="B3" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="C4" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="11">
         <v>118.2</v>
@@ -17639,7 +17639,7 @@
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>2</v>
@@ -18007,7 +18007,7 @@
     </row>
     <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>2</v>
@@ -18053,7 +18053,7 @@
     </row>
     <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="15">
         <v>82.2</v>
@@ -18076,7 +18076,7 @@
     </row>
     <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="15">
         <v>12.5</v>
@@ -18122,7 +18122,7 @@
     </row>
     <row r="28" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>2</v>
@@ -18191,7 +18191,7 @@
     </row>
     <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="15">
         <v>7.4</v>
@@ -18214,7 +18214,7 @@
     </row>
     <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>2</v>
@@ -18237,7 +18237,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="15">
         <v>42.5</v>
@@ -18260,7 +18260,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="15">
         <v>33.5</v>
@@ -18283,7 +18283,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="15">
         <v>12.7</v>
@@ -18306,7 +18306,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="15">
         <v>22.8</v>
@@ -18352,7 +18352,7 @@
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>2</v>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="15">
         <v>20.8</v>
@@ -18536,7 +18536,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="15">
         <v>3.8</v>
@@ -18559,7 +18559,7 @@
     </row>
     <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>2</v>
@@ -18582,7 +18582,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="15">
         <v>47.5</v>
@@ -18605,7 +18605,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="15">
         <v>29.5</v>
@@ -18628,7 +18628,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="15">
         <v>1.8</v>
@@ -18651,7 +18651,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" s="15">
         <v>2.1</v>
@@ -18674,7 +18674,7 @@
     </row>
     <row r="52" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" s="15">
         <v>37.299999999999997</v>
@@ -18697,7 +18697,7 @@
     </row>
     <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>2</v>
@@ -18720,7 +18720,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" s="22">
         <v>40.200000000000003</v>
@@ -18812,7 +18812,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" s="22">
         <v>6.7</v>
@@ -18835,7 +18835,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="22">
         <v>3</v>
@@ -18881,7 +18881,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61" s="22">
         <v>0.7</v>
@@ -18904,7 +18904,7 @@
     </row>
     <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>2</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" s="22">
         <v>73.099999999999994</v>
@@ -18973,7 +18973,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B65" s="22">
         <v>5.4</v>
@@ -18996,7 +18996,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B66" s="22">
         <v>4.4000000000000004</v>
@@ -19019,7 +19019,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" s="22">
         <v>1.8</v>
@@ -19042,7 +19042,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B68" s="22">
         <v>1.2</v>
@@ -19065,7 +19065,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B69" s="22">
         <v>1.3</v>
@@ -19088,7 +19088,7 @@
     </row>
     <row r="70" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" s="22">
         <v>21.1</v>
@@ -19111,7 +19111,7 @@
     </row>
     <row r="71" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>2</v>
@@ -19295,7 +19295,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B79" s="22">
         <v>16</v>
@@ -19318,7 +19318,7 @@
     </row>
     <row r="80" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>2</v>
@@ -19456,7 +19456,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B86" s="22">
         <v>5.3</v>
@@ -19479,7 +19479,7 @@
     </row>
     <row r="87" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>2</v>
@@ -19594,7 +19594,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B92" s="22">
         <v>22.4</v>
@@ -19617,7 +19617,7 @@
     </row>
     <row r="93" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B93" s="21" t="s">
         <v>2</v>
@@ -19709,7 +19709,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B97" s="22">
         <v>12.9</v>
@@ -19732,7 +19732,7 @@
     </row>
     <row r="98" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B98" s="21" t="s">
         <v>2</v>
@@ -19801,7 +19801,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B101" s="22">
         <v>2.2000000000000002</v>
@@ -19870,7 +19870,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="22">
         <v>20.6</v>
@@ -19893,7 +19893,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" s="22">
         <v>14.6</v>
@@ -19939,7 +19939,7 @@
     </row>
     <row r="107" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B107" s="22">
         <v>37.299999999999997</v>
@@ -19962,7 +19962,7 @@
     </row>
     <row r="108" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B108" s="21" t="s">
         <v>2</v>
@@ -20008,7 +20008,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B110" s="22">
         <v>7.5</v>
@@ -20031,7 +20031,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B111" s="22">
         <v>37.9</v>
@@ -20077,7 +20077,7 @@
     </row>
     <row r="113" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B113" s="22">
         <v>37.299999999999997</v>
@@ -20100,7 +20100,7 @@
     </row>
     <row r="114" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B114" s="21" t="s">
         <v>2</v>
@@ -20146,7 +20146,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B116" s="22">
         <v>11.4</v>
@@ -20169,7 +20169,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B117" s="22">
         <v>30.3</v>
@@ -20192,7 +20192,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B118" s="22">
         <v>5.2</v>
@@ -20238,7 +20238,7 @@
     </row>
     <row r="120" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A120" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B120" s="15">
         <v>37.299999999999997</v>
@@ -20261,7 +20261,7 @@
     </row>
     <row r="121" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B121" s="21" t="s">
         <v>2</v>
@@ -20284,7 +20284,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122" s="22">
         <v>37.5</v>
@@ -20307,7 +20307,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123" s="22">
         <v>57.9</v>
@@ -20330,7 +20330,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124" s="22">
         <v>20.9</v>
@@ -20353,7 +20353,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125" s="22">
         <v>1.9</v>
@@ -20376,7 +20376,7 @@
     </row>
     <row r="126" spans="1:7" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126" s="21" t="s">
         <v>2</v>
@@ -20422,7 +20422,7 @@
     </row>
     <row r="128" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B128" s="22">
         <v>48.4</v>
@@ -20445,7 +20445,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B129" s="22">
         <v>9</v>
@@ -20468,7 +20468,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B130" s="22">
         <v>4.8</v>
@@ -20491,7 +20491,7 @@
     </row>
     <row r="131" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B131" s="21" t="s">
         <v>2</v>
@@ -20560,7 +20560,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B134" s="22">
         <v>6.8</v>
@@ -20583,7 +20583,7 @@
     </row>
     <row r="135" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135" s="21" t="s">
         <v>2</v>
@@ -20606,7 +20606,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B136" s="22">
         <v>5.8</v>
@@ -20629,7 +20629,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B137" s="22">
         <v>17.8</v>
@@ -20652,7 +20652,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" s="22">
         <v>28.2</v>
@@ -20675,7 +20675,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139" s="22">
         <v>37.6</v>
@@ -20698,7 +20698,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B140" s="22">
         <v>12.9</v>
@@ -20721,7 +20721,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B141" s="22">
         <v>12.2</v>
@@ -20744,7 +20744,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B142" s="22">
         <v>3.7</v>
@@ -20767,7 +20767,7 @@
     </row>
     <row r="143" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B143" s="21" t="s">
         <v>2</v>
@@ -20790,7 +20790,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B144" s="22">
         <v>48.7</v>
@@ -20813,7 +20813,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B145" s="22">
         <v>68.3</v>
@@ -20836,7 +20836,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B146" s="22">
         <v>1.2</v>
@@ -20859,7 +20859,7 @@
     </row>
     <row r="147" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B147" s="21" t="s">
         <v>2</v>
@@ -20882,7 +20882,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B148" s="22">
         <v>47.7</v>
@@ -20928,7 +20928,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150" s="22">
         <v>25.3</v>
@@ -20951,7 +20951,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151" s="22">
         <v>2</v>
@@ -20974,7 +20974,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152" s="22">
         <v>1.4</v>
@@ -20997,7 +20997,7 @@
     </row>
     <row r="153" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B153" s="21" t="s">
         <v>2</v>
@@ -21089,7 +21089,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B157" s="15">
         <v>2.9</v>
@@ -21112,7 +21112,7 @@
     </row>
     <row r="158" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158" s="21" t="s">
         <v>2</v>
@@ -21181,7 +21181,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B161" s="15">
         <v>14.7</v>
@@ -21204,7 +21204,7 @@
     </row>
     <row r="162" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B162" s="21" t="s">
         <v>2</v>
@@ -21273,7 +21273,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B165" s="15">
         <v>34.200000000000003</v>
@@ -21296,7 +21296,7 @@
     </row>
     <row r="166" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B166" s="21" t="s">
         <v>2</v>
@@ -21365,7 +21365,7 @@
     </row>
     <row r="169" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B169" s="22">
         <v>21.1</v>
@@ -21388,7 +21388,7 @@
     </row>
     <row r="170" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B170" s="21" t="s">
         <v>2</v>
@@ -21434,7 +21434,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B172" s="22">
         <v>68.599999999999994</v>
@@ -21457,7 +21457,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B173" s="22">
         <v>13.3</v>
@@ -21503,7 +21503,7 @@
     </row>
     <row r="175" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B175" s="13" t="s">
         <v>2</v>
@@ -21572,7 +21572,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B178" s="15">
         <v>30.5</v>
@@ -21595,7 +21595,7 @@
     </row>
     <row r="179" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B179" s="21" t="s">
         <v>2</v>
@@ -21664,7 +21664,7 @@
     </row>
     <row r="182" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B182" s="22">
         <v>21.1</v>
@@ -21687,7 +21687,7 @@
     </row>
     <row r="183" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B183" s="21" t="s">
         <v>2</v>
@@ -21756,7 +21756,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B186" s="22">
         <v>30.5</v>
@@ -21779,7 +21779,7 @@
     </row>
     <row r="187" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B187" s="13" t="s">
         <v>2</v>
@@ -21802,7 +21802,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B188" s="22">
         <v>2.7</v>
@@ -21825,7 +21825,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B189" s="22">
         <v>4.7</v>
@@ -21848,7 +21848,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B190" s="22">
         <v>0.8</v>
@@ -21871,7 +21871,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B191" s="22">
         <v>79.3</v>
@@ -21894,7 +21894,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B192" s="22">
         <v>30.5</v>
@@ -21917,7 +21917,7 @@
     </row>
     <row r="193" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B193" s="21" t="s">
         <v>2</v>
@@ -21940,7 +21940,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B194" s="22">
         <v>2.5</v>
@@ -21963,7 +21963,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B195" s="22">
         <v>0.7</v>
@@ -21986,7 +21986,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B196" s="22">
         <v>1.1000000000000001</v>
@@ -22009,7 +22009,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B197" s="22">
         <v>0.3</v>
@@ -22032,7 +22032,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B198" s="22">
         <v>0.3</v>
@@ -22055,7 +22055,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B199" s="22" t="s">
         <v>38</v>
@@ -22078,7 +22078,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B200" s="22">
         <v>5.4</v>
@@ -22101,7 +22101,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B201" s="22">
         <v>79.3</v>
@@ -22124,7 +22124,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B202" s="22">
         <v>30.5</v>
@@ -22147,7 +22147,7 @@
     </row>
     <row r="203" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B203" s="13" t="s">
         <v>2</v>
@@ -22216,7 +22216,7 @@
     </row>
     <row r="206" spans="1:7" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B206" s="13" t="s">
         <v>2</v>
@@ -22239,7 +22239,7 @@
     </row>
     <row r="207" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B207" s="22">
         <v>4</v>
@@ -22262,7 +22262,7 @@
     </row>
     <row r="208" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B208" s="22">
         <v>1.6</v>
@@ -22285,7 +22285,7 @@
     </row>
     <row r="209" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B209" s="22">
         <v>2.9</v>
@@ -22308,7 +22308,7 @@
     </row>
     <row r="210" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B210" s="22">
         <v>109.8</v>
@@ -22331,7 +22331,7 @@
     </row>
     <row r="211" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B211" s="13" t="s">
         <v>2</v>
@@ -22354,7 +22354,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B212" s="22">
         <v>4</v>
@@ -22377,7 +22377,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B213" s="22">
         <v>1.6</v>
@@ -22400,7 +22400,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B214" s="22">
         <v>0.3</v>
@@ -22423,7 +22423,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B215" s="22">
         <v>2.5</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B216" s="22">
         <v>109.8</v>
@@ -22469,7 +22469,7 @@
     </row>
     <row r="217" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B217" s="21" t="s">
         <v>2</v>
@@ -22492,7 +22492,7 @@
     </row>
     <row r="218" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B218" s="15">
         <v>5.6</v>
@@ -22515,7 +22515,7 @@
     </row>
     <row r="219" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A219" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B219" s="15">
         <v>2.4</v>
@@ -22538,7 +22538,7 @@
     </row>
     <row r="220" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A220" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B220" s="15">
         <v>4.2</v>
@@ -22561,7 +22561,7 @@
     </row>
     <row r="221" spans="1:7" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B221" s="15">
         <v>6.5</v>
@@ -22584,7 +22584,7 @@
     </row>
     <row r="222" spans="1:7" s="19" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A222" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B222" s="15">
         <v>6.6</v>
@@ -22607,7 +22607,7 @@
     </row>
     <row r="223" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B223" s="15">
         <v>2.6</v>
@@ -22638,15 +22638,15 @@
       <c r="G224" s="26"/>
     </row>
     <row r="225" spans="1:7" s="19" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="B225" s="38"/>
-      <c r="C225" s="38"/>
-      <c r="D225" s="38"/>
-      <c r="E225" s="38"/>
-      <c r="F225" s="38"/>
-      <c r="G225" s="38"/>
+      <c r="A225" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B225" s="41"/>
+      <c r="C225" s="41"/>
+      <c r="D225" s="41"/>
+      <c r="E225" s="41"/>
+      <c r="F225" s="41"/>
+      <c r="G225" s="41"/>
     </row>
     <row r="226" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226"/>
@@ -22686,7 +22686,7 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
@@ -22698,16 +22698,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>202</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -22904,7 +22904,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B15" s="32">
         <v>0</v>
@@ -22918,7 +22918,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B16" s="32">
         <v>0</v>
@@ -22932,7 +22932,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" s="32">
         <v>0</v>

--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-us\InputData\bldgs\SYDEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\bldgs\SYDEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D417B3-A224-4710-8A19-E62CB5CC9650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3159ABD4-D9AE-4CF0-9AC1-24C75825F4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13455" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22305" yWindow="3315" windowWidth="34650" windowHeight="19770" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="595">
   <si>
     <t>Energy Information Administration</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Commercial Building Floorspace</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -547,9 +544,6 @@
   </si>
   <si>
     <t>municipal solid waste</t>
-  </si>
-  <si>
-    <t>MW</t>
   </si>
   <si>
     <t>SYDEC Start Year Distributed Electricity Capacity</t>
@@ -1988,6 +1982,15 @@
   <si>
     <t>Table 21 and Table 22</t>
   </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>Unit: MW</t>
+  </si>
 </sst>
 </file>
 
@@ -1997,7 +2000,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2113,6 +2116,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2295,7 +2306,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2388,6 +2399,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="10">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -14977,145 +14989,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="30" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="30" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="30" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="30" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f>'RECS HC2.1'!B24/('RECS HC2.1'!B24+'RECS HC2.1'!B27)</f>
         <v>0.81308184246741677</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f>'RECS HC2.1'!B27/('RECS HC2.1'!B24+'RECS HC2.1'!B27)</f>
         <v>0.18691815753258317</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1000</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -15139,41 +15149,41 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="2" width="78.54296875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="78.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>176</v>
-      </c>
-      <c r="C5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" t="s">
-        <v>178</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -15272,37 +15282,37 @@
         <v>2050</v>
       </c>
       <c r="AK5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>181</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>183</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>184</v>
-      </c>
-      <c r="C8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" t="s">
-        <v>186</v>
       </c>
       <c r="E8">
         <v>12.160138</v>
@@ -15404,18 +15414,18 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
         <v>187</v>
       </c>
-      <c r="B9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" t="s">
-        <v>189</v>
-      </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E9">
         <v>29.549334000000002</v>
@@ -15517,18 +15527,18 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
         <v>190</v>
       </c>
-      <c r="B10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" t="s">
-        <v>192</v>
-      </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E10">
         <v>1.2967010000000001</v>
@@ -15630,18 +15640,18 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
         <v>193</v>
       </c>
-      <c r="B11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" t="s">
-        <v>195</v>
-      </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E11">
         <v>59.438350999999997</v>
@@ -15743,18 +15753,18 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
         <v>196</v>
       </c>
-      <c r="B12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
-        <v>198</v>
-      </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E12">
         <v>5.53918</v>
@@ -15856,18 +15866,18 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E13">
         <v>5.0616490000000001</v>
@@ -15969,18 +15979,18 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" t="s">
         <v>201</v>
       </c>
-      <c r="B14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" t="s">
-        <v>203</v>
-      </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E14">
         <v>3.0339999999999998E-3</v>
@@ -16082,18 +16092,18 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" t="s">
         <v>204</v>
       </c>
-      <c r="B15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" t="s">
-        <v>206</v>
-      </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E15">
         <v>3.3147950000000002</v>
@@ -16195,18 +16205,18 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" t="s">
         <v>207</v>
       </c>
-      <c r="B16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" t="s">
-        <v>209</v>
-      </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E16">
         <v>0.62972499999999998</v>
@@ -16308,18 +16318,18 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" t="s">
         <v>210</v>
       </c>
-      <c r="B17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" t="s">
-        <v>212</v>
-      </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E17">
         <v>116.99290499999999</v>
@@ -16421,26 +16431,26 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s">
         <v>213</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" t="s">
-        <v>216</v>
-      </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E19">
         <v>12.16014</v>
@@ -16542,18 +16552,18 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E20">
         <v>1.2967010000000001</v>
@@ -16655,18 +16665,18 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E21">
         <v>0.62972499999999998</v>
@@ -16768,18 +16778,18 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" t="s">
         <v>221</v>
       </c>
-      <c r="B22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" t="s">
-        <v>223</v>
-      </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E22">
         <v>60.295586</v>
@@ -16881,18 +16891,18 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" t="s">
         <v>224</v>
       </c>
-      <c r="B23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" t="s">
-        <v>226</v>
-      </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E23">
         <v>57.229258999999999</v>
@@ -16994,18 +17004,18 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E24">
         <v>131.61142000000001</v>
@@ -17107,26 +17117,26 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>229</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
         <v>231</v>
       </c>
-      <c r="B26" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" t="s">
-        <v>233</v>
-      </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E26">
         <v>57.777428</v>
@@ -17228,18 +17238,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" t="s">
         <v>234</v>
       </c>
-      <c r="B27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C27" t="s">
-        <v>236</v>
-      </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E27">
         <v>59.147540999999997</v>
@@ -17341,18 +17351,18 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E28">
         <v>2.6672030000000002</v>
@@ -17454,18 +17464,18 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E29">
         <v>4.0543930000000001</v>
@@ -17567,18 +17577,18 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" t="s">
         <v>241</v>
       </c>
-      <c r="B30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C30" t="s">
-        <v>243</v>
-      </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E30">
         <v>1.385629</v>
@@ -17680,18 +17690,18 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E31">
         <v>125.032196</v>
@@ -17793,26 +17803,26 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" t="s">
         <v>246</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>231</v>
-      </c>
-      <c r="B33" t="s">
-        <v>248</v>
-      </c>
-      <c r="C33" t="s">
-        <v>249</v>
-      </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E33">
         <v>94.697258000000005</v>
@@ -17914,18 +17924,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C34" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E34">
         <v>47.028514999999999</v>
@@ -18027,18 +18037,18 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E35">
         <v>7.0283059999999997</v>
@@ -18140,18 +18150,18 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E36">
         <v>148.754074</v>
@@ -18253,26 +18263,26 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" t="s">
         <v>256</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="38" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>231</v>
-      </c>
-      <c r="B38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C38" t="s">
-        <v>259</v>
-      </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E38">
         <v>80.303070000000005</v>
@@ -18374,18 +18384,18 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E39">
         <v>18.848210999999999</v>
@@ -18487,18 +18497,18 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E40">
         <v>99.151283000000006</v>
@@ -18600,26 +18610,26 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>264</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="42" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
         <v>266</v>
       </c>
-      <c r="B42" t="s">
-        <v>267</v>
-      </c>
-      <c r="C42" t="s">
-        <v>268</v>
-      </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E42">
         <v>165.02848800000001</v>
@@ -18721,18 +18731,18 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" t="s">
         <v>269</v>
       </c>
-      <c r="B43" t="s">
-        <v>270</v>
-      </c>
-      <c r="C43" t="s">
-        <v>271</v>
-      </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E43">
         <v>43.544589999999999</v>
@@ -18834,34 +18844,34 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="C44" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="45" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>181</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="46" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
         <v>274</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>275</v>
-      </c>
-      <c r="C46" t="s">
-        <v>276</v>
-      </c>
-      <c r="D46" t="s">
-        <v>277</v>
       </c>
       <c r="E46">
         <v>8.0663889999999991</v>
@@ -18963,18 +18973,18 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>276</v>
+      </c>
+      <c r="B47" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" t="s">
         <v>278</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>279</v>
-      </c>
-      <c r="C47" t="s">
-        <v>280</v>
-      </c>
-      <c r="D47" t="s">
-        <v>281</v>
       </c>
       <c r="E47">
         <v>1.3</v>
@@ -19076,18 +19086,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" t="s">
         <v>282</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>283</v>
-      </c>
-      <c r="C48" t="s">
-        <v>284</v>
-      </c>
-      <c r="D48" t="s">
-        <v>285</v>
       </c>
       <c r="E48">
         <v>3.3528259999999999</v>
@@ -19189,18 +19199,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>284</v>
+      </c>
+      <c r="B49" t="s">
+        <v>285</v>
+      </c>
+      <c r="C49" t="s">
         <v>286</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>287</v>
-      </c>
-      <c r="C49" t="s">
-        <v>288</v>
-      </c>
-      <c r="D49" t="s">
-        <v>289</v>
       </c>
       <c r="E49">
         <v>0.815604</v>
@@ -19302,18 +19312,18 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>289</v>
+      </c>
+      <c r="C50" t="s">
         <v>290</v>
       </c>
-      <c r="B50" t="s">
-        <v>291</v>
-      </c>
-      <c r="C50" t="s">
-        <v>292</v>
-      </c>
       <c r="D50" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E50">
         <v>0.83301199999999997</v>
@@ -19415,26 +19425,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>293</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="52" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="C52" t="s">
         <v>295</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>296</v>
-      </c>
-      <c r="C52" t="s">
-        <v>297</v>
-      </c>
-      <c r="D52" t="s">
-        <v>298</v>
       </c>
       <c r="E52">
         <v>13.628468</v>
@@ -19536,18 +19546,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B53" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C53" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D53" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E53">
         <v>0.6</v>
@@ -19649,18 +19659,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" t="s">
+        <v>300</v>
+      </c>
+      <c r="C54" t="s">
         <v>301</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>302</v>
-      </c>
-      <c r="C54" t="s">
-        <v>303</v>
-      </c>
-      <c r="D54" t="s">
-        <v>304</v>
       </c>
       <c r="E54">
         <v>15.019470999999999</v>
@@ -19762,18 +19772,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>303</v>
+      </c>
+      <c r="B55" t="s">
+        <v>304</v>
+      </c>
+      <c r="C55" t="s">
         <v>305</v>
       </c>
-      <c r="B55" t="s">
-        <v>306</v>
-      </c>
-      <c r="C55" t="s">
-        <v>307</v>
-      </c>
       <c r="D55" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E55">
         <v>13.063986999999999</v>
@@ -19875,18 +19885,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>306</v>
+      </c>
+      <c r="B56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C56" t="s">
         <v>308</v>
       </c>
-      <c r="B56" t="s">
-        <v>309</v>
-      </c>
-      <c r="C56" t="s">
-        <v>310</v>
-      </c>
       <c r="D56" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E56">
         <v>11.089376</v>
@@ -19988,26 +19998,26 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>309</v>
+      </c>
+      <c r="C57" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>311</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="58" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
         <v>313</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>314</v>
-      </c>
-      <c r="C58" t="s">
-        <v>315</v>
-      </c>
-      <c r="D58" t="s">
-        <v>316</v>
       </c>
       <c r="E58">
         <v>0.90388299999999999</v>
@@ -20109,18 +20119,18 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>315</v>
+      </c>
+      <c r="B59" t="s">
+        <v>316</v>
+      </c>
+      <c r="C59" t="s">
         <v>317</v>
       </c>
-      <c r="B59" t="s">
-        <v>318</v>
-      </c>
-      <c r="C59" t="s">
-        <v>319</v>
-      </c>
       <c r="D59" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E59">
         <v>0.602607</v>
@@ -20222,18 +20232,18 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>318</v>
+      </c>
+      <c r="B60" t="s">
+        <v>319</v>
+      </c>
+      <c r="C60" t="s">
         <v>320</v>
       </c>
-      <c r="B60" t="s">
-        <v>321</v>
-      </c>
-      <c r="C60" t="s">
-        <v>322</v>
-      </c>
       <c r="D60" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E60">
         <v>0.56606599999999996</v>
@@ -20335,18 +20345,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>321</v>
+      </c>
+      <c r="B61" t="s">
+        <v>322</v>
+      </c>
+      <c r="C61" t="s">
         <v>323</v>
       </c>
-      <c r="B61" t="s">
-        <v>324</v>
-      </c>
-      <c r="C61" t="s">
-        <v>325</v>
-      </c>
       <c r="D61" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E61">
         <v>0.59544699999999995</v>
@@ -20448,26 +20458,26 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>324</v>
+      </c>
+      <c r="C62" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" t="s">
         <v>326</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="63" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>266</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>328</v>
-      </c>
-      <c r="C63" t="s">
-        <v>329</v>
-      </c>
-      <c r="D63" t="s">
-        <v>330</v>
       </c>
       <c r="E63">
         <v>631.17083700000001</v>
@@ -20569,18 +20579,18 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B64" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D64" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E64">
         <v>463.170593</v>
@@ -20682,34 +20692,34 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>331</v>
+      </c>
+      <c r="C65" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>333</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="67" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>335</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="67" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="C67" t="s">
         <v>337</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
         <v>338</v>
-      </c>
-      <c r="C67" t="s">
-        <v>339</v>
-      </c>
-      <c r="D67" t="s">
-        <v>340</v>
       </c>
       <c r="E67">
         <v>0.96926999999999996</v>
@@ -20811,18 +20821,18 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B68" t="s">
+        <v>340</v>
+      </c>
+      <c r="C68" t="s">
         <v>341</v>
       </c>
-      <c r="B68" t="s">
-        <v>342</v>
-      </c>
-      <c r="C68" t="s">
-        <v>343</v>
-      </c>
       <c r="D68" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E68">
         <v>0.890374</v>
@@ -20924,18 +20934,18 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>342</v>
+      </c>
+      <c r="B69" t="s">
+        <v>343</v>
+      </c>
+      <c r="C69" t="s">
         <v>344</v>
       </c>
-      <c r="B69" t="s">
-        <v>345</v>
-      </c>
-      <c r="C69" t="s">
-        <v>346</v>
-      </c>
       <c r="D69" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E69">
         <v>0.96527600000000002</v>
@@ -21037,26 +21047,26 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C70" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>335</v>
+      </c>
+      <c r="B71" t="s">
+        <v>346</v>
+      </c>
+      <c r="C71" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="71" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>337</v>
-      </c>
-      <c r="B71" t="s">
-        <v>348</v>
-      </c>
-      <c r="C71" t="s">
-        <v>349</v>
-      </c>
       <c r="D71" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E71">
         <v>0.98990299999999998</v>
@@ -21158,18 +21168,18 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B72" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C72" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D72" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E72">
         <v>0.99944699999999997</v>
@@ -21271,18 +21281,18 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B73" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C73" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D73" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E73">
         <v>0.99028300000000002</v>
@@ -21384,42 +21394,42 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>352</v>
+      </c>
+      <c r="C74" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>354</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>358</v>
       </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="77" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="C77" t="s">
         <v>360</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>361</v>
-      </c>
-      <c r="C77" t="s">
-        <v>362</v>
-      </c>
-      <c r="D77" t="s">
-        <v>363</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -21521,18 +21531,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>362</v>
+      </c>
+      <c r="B78" t="s">
+        <v>363</v>
+      </c>
+      <c r="C78" t="s">
         <v>364</v>
       </c>
-      <c r="B78" t="s">
-        <v>365</v>
-      </c>
-      <c r="C78" t="s">
-        <v>366</v>
-      </c>
       <c r="D78" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E78">
         <v>15.371161000000001</v>
@@ -21634,18 +21644,18 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:37" s="10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>369</v>
-      </c>
       <c r="D79" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E79" s="10">
         <v>1.4080000000000001E-2</v>
@@ -21747,18 +21757,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C80" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D80" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E80">
         <v>15.385241000000001</v>
@@ -21860,26 +21870,26 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>370</v>
+      </c>
+      <c r="C81" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>358</v>
+      </c>
+      <c r="B82" t="s">
         <v>372</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="82" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>360</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="D82" t="s">
         <v>374</v>
-      </c>
-      <c r="C82" t="s">
-        <v>375</v>
-      </c>
-      <c r="D82" t="s">
-        <v>376</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -21981,18 +21991,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B83" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C83" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D83" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E83">
         <v>21.794661000000001</v>
@@ -22094,18 +22104,18 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B84" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C84" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D84" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E84">
         <v>1.8376E-2</v>
@@ -22207,18 +22217,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B85" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C85" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D85" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E85">
         <v>21.813036</v>
@@ -22320,26 +22330,26 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>381</v>
+      </c>
+      <c r="C86" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>383</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="87" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="C87" t="s">
         <v>385</v>
       </c>
-      <c r="B87" t="s">
-        <v>386</v>
-      </c>
-      <c r="C87" t="s">
-        <v>387</v>
-      </c>
       <c r="D87" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E87">
         <v>4.1850319999999996</v>
@@ -22441,18 +22451,18 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>386</v>
+      </c>
+      <c r="B88" t="s">
+        <v>387</v>
+      </c>
+      <c r="C88" t="s">
         <v>388</v>
       </c>
-      <c r="B88" t="s">
-        <v>389</v>
-      </c>
-      <c r="C88" t="s">
-        <v>390</v>
-      </c>
       <c r="D88" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E88">
         <v>17.628004000000001</v>
@@ -22554,26 +22564,26 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>389</v>
+      </c>
+      <c r="C89" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>358</v>
+      </c>
+      <c r="B90" t="s">
         <v>391</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="90" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>360</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>393</v>
-      </c>
-      <c r="C90" t="s">
-        <v>394</v>
-      </c>
-      <c r="D90" t="s">
-        <v>395</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -22675,18 +22685,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B91" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C91" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D91" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E91">
         <v>188.54324299999999</v>
@@ -22788,18 +22798,18 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B92" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C92" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D92" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E92">
         <v>0.17482800000000001</v>
@@ -22901,18 +22911,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B93" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C93" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D93" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E93">
         <v>188.71807899999999</v>
@@ -23025,47 +23035,48 @@
   <dimension ref="A1:AK81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="79" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>176</v>
-      </c>
-      <c r="C5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" t="s">
-        <v>178</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -23164,37 +23175,37 @@
         <v>2050</v>
       </c>
       <c r="AK5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>406</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>408</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>409</v>
-      </c>
-      <c r="C8" t="s">
-        <v>410</v>
-      </c>
-      <c r="D8" t="s">
-        <v>411</v>
       </c>
       <c r="E8">
         <v>0.67537800000000003</v>
@@ -23296,18 +23307,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" t="s">
         <v>412</v>
       </c>
-      <c r="B9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C9" t="s">
-        <v>414</v>
-      </c>
       <c r="D9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E9">
         <v>1.1211500000000001</v>
@@ -23409,18 +23420,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C10" t="s">
         <v>415</v>
       </c>
-      <c r="B10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C10" t="s">
-        <v>417</v>
-      </c>
       <c r="D10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E10">
         <v>0.34264699999999998</v>
@@ -23522,18 +23533,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" t="s">
         <v>418</v>
       </c>
-      <c r="B11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C11" t="s">
-        <v>420</v>
-      </c>
       <c r="D11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E11">
         <v>0.607456</v>
@@ -23635,18 +23646,18 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" t="s">
         <v>421</v>
       </c>
-      <c r="B12" t="s">
-        <v>422</v>
-      </c>
-      <c r="C12" t="s">
-        <v>423</v>
-      </c>
       <c r="D12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E12">
         <v>0.56497399999999998</v>
@@ -23748,18 +23759,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C13" t="s">
         <v>424</v>
       </c>
-      <c r="B13" t="s">
-        <v>425</v>
-      </c>
-      <c r="C13" t="s">
-        <v>426</v>
-      </c>
       <c r="D13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E13">
         <v>0.64757600000000004</v>
@@ -23861,18 +23872,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" t="s">
         <v>427</v>
       </c>
-      <c r="B14" t="s">
-        <v>428</v>
-      </c>
-      <c r="C14" t="s">
-        <v>429</v>
-      </c>
       <c r="D14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E14">
         <v>0.92101599999999995</v>
@@ -23974,18 +23985,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B15" t="s">
+        <v>429</v>
+      </c>
+      <c r="C15" t="s">
         <v>430</v>
       </c>
-      <c r="B15" t="s">
-        <v>431</v>
-      </c>
-      <c r="C15" t="s">
-        <v>432</v>
-      </c>
       <c r="D15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E15">
         <v>0.62927</v>
@@ -24087,18 +24098,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C16" t="s">
         <v>433</v>
       </c>
-      <c r="B16" t="s">
-        <v>434</v>
-      </c>
-      <c r="C16" t="s">
-        <v>435</v>
-      </c>
       <c r="D16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E16">
         <v>1.4955579999999999</v>
@@ -24200,18 +24211,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>434</v>
+      </c>
+      <c r="B17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C17" t="s">
         <v>436</v>
       </c>
-      <c r="B17" t="s">
-        <v>437</v>
-      </c>
-      <c r="C17" t="s">
-        <v>438</v>
-      </c>
       <c r="D17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E17">
         <v>0.42604199999999998</v>
@@ -24313,18 +24324,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>437</v>
+      </c>
+      <c r="B18" t="s">
+        <v>438</v>
+      </c>
+      <c r="C18" t="s">
         <v>439</v>
       </c>
-      <c r="B18" t="s">
-        <v>440</v>
-      </c>
-      <c r="C18" t="s">
-        <v>441</v>
-      </c>
       <c r="D18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E18">
         <v>0.48264800000000002</v>
@@ -24426,18 +24437,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E19">
         <v>7.9137139999999997</v>
@@ -24539,34 +24550,34 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C21" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>406</v>
+      </c>
+      <c r="B22" t="s">
         <v>445</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>408</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>447</v>
-      </c>
-      <c r="C22" t="s">
-        <v>448</v>
-      </c>
-      <c r="D22" t="s">
-        <v>449</v>
       </c>
       <c r="E22">
         <v>10.348913</v>
@@ -24668,18 +24679,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B23" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E23">
         <v>13.216391</v>
@@ -24781,18 +24792,18 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E24">
         <v>1.3063400000000001</v>
@@ -24894,18 +24905,18 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E25">
         <v>1.9086799999999999</v>
@@ -25007,18 +25018,18 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C26" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D26" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E26">
         <v>2.5964450000000001</v>
@@ -25120,18 +25131,18 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C27" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D27" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E27">
         <v>6.3980040000000002</v>
@@ -25233,18 +25244,18 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B28" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C28" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E28">
         <v>9.4917409999999993</v>
@@ -25346,18 +25357,18 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D29" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E29">
         <v>8.9690670000000008</v>
@@ -25459,18 +25470,18 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B30" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D30" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E30">
         <v>17.083445000000001</v>
@@ -25572,18 +25583,18 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C31" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D31" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E31">
         <v>14.266182000000001</v>
@@ -25685,18 +25696,18 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B32" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C32" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D32" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E32">
         <v>7.2390049999999997</v>
@@ -25798,18 +25809,18 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C33" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D33" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E33">
         <v>92.824211000000005</v>
@@ -25911,34 +25922,34 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>335</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>474</v>
-      </c>
-      <c r="C36" t="s">
-        <v>475</v>
-      </c>
-      <c r="D36" t="s">
-        <v>476</v>
       </c>
       <c r="E36">
         <v>1.606077</v>
@@ -26040,18 +26051,18 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B37" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C37" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D37" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E37">
         <v>0.78704600000000002</v>
@@ -26153,18 +26164,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C38" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D38" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E38">
         <v>0.80861499999999997</v>
@@ -26266,26 +26277,26 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C39" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" t="s">
+        <v>480</v>
+      </c>
+      <c r="C40" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" t="s">
-        <v>482</v>
-      </c>
-      <c r="C40" t="s">
-        <v>483</v>
-      </c>
       <c r="D40" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E40">
         <v>3.511387</v>
@@ -26387,18 +26398,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B41" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C41" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D41" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E41">
         <v>0.74804000000000004</v>
@@ -26500,26 +26511,26 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>484</v>
+      </c>
+      <c r="C42" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="s">
         <v>486</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" t="s">
-        <v>488</v>
-      </c>
-      <c r="C43" t="s">
-        <v>489</v>
-      </c>
       <c r="D43" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E43">
         <v>1.112897</v>
@@ -26621,18 +26632,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C44" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D44" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E44">
         <v>0.88002899999999995</v>
@@ -26734,18 +26745,18 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C45" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D45" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E45">
         <v>0.80422899999999997</v>
@@ -26847,26 +26858,26 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>492</v>
+      </c>
+      <c r="C46" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
         <v>494</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>496</v>
-      </c>
-      <c r="C47" t="s">
-        <v>497</v>
-      </c>
-      <c r="D47" t="s">
-        <v>498</v>
       </c>
       <c r="E47">
         <v>0.54326700000000006</v>
@@ -26968,26 +26979,26 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>497</v>
+      </c>
+      <c r="C48" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" t="s">
         <v>499</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" t="s">
-        <v>501</v>
-      </c>
-      <c r="C49" t="s">
-        <v>502</v>
-      </c>
       <c r="D49" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E49">
         <v>0.69145400000000001</v>
@@ -27089,18 +27100,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B50" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C50" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D50" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E50">
         <v>0.31666699999999998</v>
@@ -27202,34 +27213,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>503</v>
+      </c>
+      <c r="C51" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>505</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" t="s">
         <v>507</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>509</v>
-      </c>
-      <c r="C53" t="s">
-        <v>510</v>
-      </c>
-      <c r="D53" t="s">
-        <v>511</v>
       </c>
       <c r="E53">
         <v>80.315101999999996</v>
@@ -27331,26 +27342,26 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>510</v>
+      </c>
+      <c r="C54" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" t="s">
         <v>512</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" t="s">
-        <v>514</v>
-      </c>
-      <c r="C55" t="s">
-        <v>515</v>
-      </c>
       <c r="D55" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E55">
         <v>2.659338</v>
@@ -27452,42 +27463,42 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>352</v>
+      </c>
+      <c r="C56" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>354</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C58" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>356</v>
-      </c>
-      <c r="C57" t="s">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="C59" t="s">
         <v>519</v>
       </c>
-      <c r="B59" t="s">
-        <v>520</v>
-      </c>
-      <c r="C59" t="s">
-        <v>521</v>
-      </c>
       <c r="D59" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E59">
         <v>2.1495E-2</v>
@@ -27589,18 +27600,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B60" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C60" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D60" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E60">
         <v>1.446728</v>
@@ -27702,18 +27713,18 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B61" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C61" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D61" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E61">
         <v>14.908906999999999</v>
@@ -27815,18 +27826,18 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B62" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C62" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D62" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E62">
         <v>0.55488099999999996</v>
@@ -27928,18 +27939,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B63" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C63" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D63" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E63">
         <v>0.55637199999999998</v>
@@ -28041,18 +28052,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B64" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C64" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D64" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E64">
         <v>17.488382000000001</v>
@@ -28154,26 +28165,26 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C65" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>517</v>
+      </c>
+      <c r="B66" t="s">
+        <v>531</v>
+      </c>
+      <c r="C66" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>519</v>
-      </c>
-      <c r="B66" t="s">
-        <v>533</v>
-      </c>
-      <c r="C66" t="s">
-        <v>534</v>
-      </c>
       <c r="D66" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E66">
         <v>0.149925</v>
@@ -28275,18 +28286,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B67" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C67" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D67" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E67">
         <v>10.090925</v>
@@ -28388,18 +28399,18 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B68" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C68" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D68" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E68">
         <v>18.837548999999999</v>
@@ -28501,18 +28512,18 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B69" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C69" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D69" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E69">
         <v>0.75530799999999998</v>
@@ -28614,18 +28625,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C70" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D70" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E70">
         <v>3.977071</v>
@@ -28727,18 +28738,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B71" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C71" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D71" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E71">
         <v>33.810780000000001</v>
@@ -28840,26 +28851,26 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>381</v>
+      </c>
+      <c r="C72" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>383</v>
       </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>544</v>
+      </c>
+      <c r="C73" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>385</v>
-      </c>
-      <c r="B73" t="s">
-        <v>546</v>
-      </c>
-      <c r="C73" t="s">
-        <v>547</v>
-      </c>
       <c r="D73" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E73">
         <v>8.7188599999999994</v>
@@ -28961,18 +28972,18 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B74" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C74" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D74" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E74">
         <v>25.091916999999999</v>
@@ -29074,26 +29085,26 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C75" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>517</v>
+      </c>
+      <c r="B76" t="s">
+        <v>549</v>
+      </c>
+      <c r="C76" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>519</v>
-      </c>
-      <c r="B76" t="s">
-        <v>551</v>
-      </c>
-      <c r="C76" t="s">
-        <v>552</v>
-      </c>
       <c r="D76" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E76">
         <v>1.542511</v>
@@ -29195,18 +29206,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B77" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C77" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D77" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E77">
         <v>108.983902</v>
@@ -29308,18 +29319,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B78" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C78" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D78" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E78">
         <v>162.35742200000001</v>
@@ -29421,18 +29432,18 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B79" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C79" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D79" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E79">
         <v>7.0705559999999998</v>
@@ -29534,18 +29545,18 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B80" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C80" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D80" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E80">
         <v>89.515326999999999</v>
@@ -29647,18 +29658,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B81" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C81" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D81" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E81">
         <v>369.46972699999998</v>
@@ -29771,150 +29782,150 @@
   <dimension ref="A1:G225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" customWidth="1"/>
-    <col min="2" max="7" width="10.81640625" customWidth="1"/>
-    <col min="257" max="257" width="31.7265625" customWidth="1"/>
-    <col min="258" max="263" width="10.81640625" customWidth="1"/>
-    <col min="513" max="513" width="31.7265625" customWidth="1"/>
-    <col min="514" max="519" width="10.81640625" customWidth="1"/>
-    <col min="769" max="769" width="31.7265625" customWidth="1"/>
-    <col min="770" max="775" width="10.81640625" customWidth="1"/>
-    <col min="1025" max="1025" width="31.7265625" customWidth="1"/>
-    <col min="1026" max="1031" width="10.81640625" customWidth="1"/>
-    <col min="1281" max="1281" width="31.7265625" customWidth="1"/>
-    <col min="1282" max="1287" width="10.81640625" customWidth="1"/>
-    <col min="1537" max="1537" width="31.7265625" customWidth="1"/>
-    <col min="1538" max="1543" width="10.81640625" customWidth="1"/>
-    <col min="1793" max="1793" width="31.7265625" customWidth="1"/>
-    <col min="1794" max="1799" width="10.81640625" customWidth="1"/>
-    <col min="2049" max="2049" width="31.7265625" customWidth="1"/>
-    <col min="2050" max="2055" width="10.81640625" customWidth="1"/>
-    <col min="2305" max="2305" width="31.7265625" customWidth="1"/>
-    <col min="2306" max="2311" width="10.81640625" customWidth="1"/>
-    <col min="2561" max="2561" width="31.7265625" customWidth="1"/>
-    <col min="2562" max="2567" width="10.81640625" customWidth="1"/>
-    <col min="2817" max="2817" width="31.7265625" customWidth="1"/>
-    <col min="2818" max="2823" width="10.81640625" customWidth="1"/>
-    <col min="3073" max="3073" width="31.7265625" customWidth="1"/>
-    <col min="3074" max="3079" width="10.81640625" customWidth="1"/>
-    <col min="3329" max="3329" width="31.7265625" customWidth="1"/>
-    <col min="3330" max="3335" width="10.81640625" customWidth="1"/>
-    <col min="3585" max="3585" width="31.7265625" customWidth="1"/>
-    <col min="3586" max="3591" width="10.81640625" customWidth="1"/>
-    <col min="3841" max="3841" width="31.7265625" customWidth="1"/>
-    <col min="3842" max="3847" width="10.81640625" customWidth="1"/>
-    <col min="4097" max="4097" width="31.7265625" customWidth="1"/>
-    <col min="4098" max="4103" width="10.81640625" customWidth="1"/>
-    <col min="4353" max="4353" width="31.7265625" customWidth="1"/>
-    <col min="4354" max="4359" width="10.81640625" customWidth="1"/>
-    <col min="4609" max="4609" width="31.7265625" customWidth="1"/>
-    <col min="4610" max="4615" width="10.81640625" customWidth="1"/>
-    <col min="4865" max="4865" width="31.7265625" customWidth="1"/>
-    <col min="4866" max="4871" width="10.81640625" customWidth="1"/>
-    <col min="5121" max="5121" width="31.7265625" customWidth="1"/>
-    <col min="5122" max="5127" width="10.81640625" customWidth="1"/>
-    <col min="5377" max="5377" width="31.7265625" customWidth="1"/>
-    <col min="5378" max="5383" width="10.81640625" customWidth="1"/>
-    <col min="5633" max="5633" width="31.7265625" customWidth="1"/>
-    <col min="5634" max="5639" width="10.81640625" customWidth="1"/>
-    <col min="5889" max="5889" width="31.7265625" customWidth="1"/>
-    <col min="5890" max="5895" width="10.81640625" customWidth="1"/>
-    <col min="6145" max="6145" width="31.7265625" customWidth="1"/>
-    <col min="6146" max="6151" width="10.81640625" customWidth="1"/>
-    <col min="6401" max="6401" width="31.7265625" customWidth="1"/>
-    <col min="6402" max="6407" width="10.81640625" customWidth="1"/>
-    <col min="6657" max="6657" width="31.7265625" customWidth="1"/>
-    <col min="6658" max="6663" width="10.81640625" customWidth="1"/>
-    <col min="6913" max="6913" width="31.7265625" customWidth="1"/>
-    <col min="6914" max="6919" width="10.81640625" customWidth="1"/>
-    <col min="7169" max="7169" width="31.7265625" customWidth="1"/>
-    <col min="7170" max="7175" width="10.81640625" customWidth="1"/>
-    <col min="7425" max="7425" width="31.7265625" customWidth="1"/>
-    <col min="7426" max="7431" width="10.81640625" customWidth="1"/>
-    <col min="7681" max="7681" width="31.7265625" customWidth="1"/>
-    <col min="7682" max="7687" width="10.81640625" customWidth="1"/>
-    <col min="7937" max="7937" width="31.7265625" customWidth="1"/>
-    <col min="7938" max="7943" width="10.81640625" customWidth="1"/>
-    <col min="8193" max="8193" width="31.7265625" customWidth="1"/>
-    <col min="8194" max="8199" width="10.81640625" customWidth="1"/>
-    <col min="8449" max="8449" width="31.7265625" customWidth="1"/>
-    <col min="8450" max="8455" width="10.81640625" customWidth="1"/>
-    <col min="8705" max="8705" width="31.7265625" customWidth="1"/>
-    <col min="8706" max="8711" width="10.81640625" customWidth="1"/>
-    <col min="8961" max="8961" width="31.7265625" customWidth="1"/>
-    <col min="8962" max="8967" width="10.81640625" customWidth="1"/>
-    <col min="9217" max="9217" width="31.7265625" customWidth="1"/>
-    <col min="9218" max="9223" width="10.81640625" customWidth="1"/>
-    <col min="9473" max="9473" width="31.7265625" customWidth="1"/>
-    <col min="9474" max="9479" width="10.81640625" customWidth="1"/>
-    <col min="9729" max="9729" width="31.7265625" customWidth="1"/>
-    <col min="9730" max="9735" width="10.81640625" customWidth="1"/>
-    <col min="9985" max="9985" width="31.7265625" customWidth="1"/>
-    <col min="9986" max="9991" width="10.81640625" customWidth="1"/>
-    <col min="10241" max="10241" width="31.7265625" customWidth="1"/>
-    <col min="10242" max="10247" width="10.81640625" customWidth="1"/>
-    <col min="10497" max="10497" width="31.7265625" customWidth="1"/>
-    <col min="10498" max="10503" width="10.81640625" customWidth="1"/>
-    <col min="10753" max="10753" width="31.7265625" customWidth="1"/>
-    <col min="10754" max="10759" width="10.81640625" customWidth="1"/>
-    <col min="11009" max="11009" width="31.7265625" customWidth="1"/>
-    <col min="11010" max="11015" width="10.81640625" customWidth="1"/>
-    <col min="11265" max="11265" width="31.7265625" customWidth="1"/>
-    <col min="11266" max="11271" width="10.81640625" customWidth="1"/>
-    <col min="11521" max="11521" width="31.7265625" customWidth="1"/>
-    <col min="11522" max="11527" width="10.81640625" customWidth="1"/>
-    <col min="11777" max="11777" width="31.7265625" customWidth="1"/>
-    <col min="11778" max="11783" width="10.81640625" customWidth="1"/>
-    <col min="12033" max="12033" width="31.7265625" customWidth="1"/>
-    <col min="12034" max="12039" width="10.81640625" customWidth="1"/>
-    <col min="12289" max="12289" width="31.7265625" customWidth="1"/>
-    <col min="12290" max="12295" width="10.81640625" customWidth="1"/>
-    <col min="12545" max="12545" width="31.7265625" customWidth="1"/>
-    <col min="12546" max="12551" width="10.81640625" customWidth="1"/>
-    <col min="12801" max="12801" width="31.7265625" customWidth="1"/>
-    <col min="12802" max="12807" width="10.81640625" customWidth="1"/>
-    <col min="13057" max="13057" width="31.7265625" customWidth="1"/>
-    <col min="13058" max="13063" width="10.81640625" customWidth="1"/>
-    <col min="13313" max="13313" width="31.7265625" customWidth="1"/>
-    <col min="13314" max="13319" width="10.81640625" customWidth="1"/>
-    <col min="13569" max="13569" width="31.7265625" customWidth="1"/>
-    <col min="13570" max="13575" width="10.81640625" customWidth="1"/>
-    <col min="13825" max="13825" width="31.7265625" customWidth="1"/>
-    <col min="13826" max="13831" width="10.81640625" customWidth="1"/>
-    <col min="14081" max="14081" width="31.7265625" customWidth="1"/>
-    <col min="14082" max="14087" width="10.81640625" customWidth="1"/>
-    <col min="14337" max="14337" width="31.7265625" customWidth="1"/>
-    <col min="14338" max="14343" width="10.81640625" customWidth="1"/>
-    <col min="14593" max="14593" width="31.7265625" customWidth="1"/>
-    <col min="14594" max="14599" width="10.81640625" customWidth="1"/>
-    <col min="14849" max="14849" width="31.7265625" customWidth="1"/>
-    <col min="14850" max="14855" width="10.81640625" customWidth="1"/>
-    <col min="15105" max="15105" width="31.7265625" customWidth="1"/>
-    <col min="15106" max="15111" width="10.81640625" customWidth="1"/>
-    <col min="15361" max="15361" width="31.7265625" customWidth="1"/>
-    <col min="15362" max="15367" width="10.81640625" customWidth="1"/>
-    <col min="15617" max="15617" width="31.7265625" customWidth="1"/>
-    <col min="15618" max="15623" width="10.81640625" customWidth="1"/>
-    <col min="15873" max="15873" width="31.7265625" customWidth="1"/>
-    <col min="15874" max="15879" width="10.81640625" customWidth="1"/>
-    <col min="16129" max="16129" width="31.7265625" customWidth="1"/>
-    <col min="16130" max="16135" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="7" width="10.85546875" customWidth="1"/>
+    <col min="257" max="257" width="31.7109375" customWidth="1"/>
+    <col min="258" max="263" width="10.85546875" customWidth="1"/>
+    <col min="513" max="513" width="31.7109375" customWidth="1"/>
+    <col min="514" max="519" width="10.85546875" customWidth="1"/>
+    <col min="769" max="769" width="31.7109375" customWidth="1"/>
+    <col min="770" max="775" width="10.85546875" customWidth="1"/>
+    <col min="1025" max="1025" width="31.7109375" customWidth="1"/>
+    <col min="1026" max="1031" width="10.85546875" customWidth="1"/>
+    <col min="1281" max="1281" width="31.7109375" customWidth="1"/>
+    <col min="1282" max="1287" width="10.85546875" customWidth="1"/>
+    <col min="1537" max="1537" width="31.7109375" customWidth="1"/>
+    <col min="1538" max="1543" width="10.85546875" customWidth="1"/>
+    <col min="1793" max="1793" width="31.7109375" customWidth="1"/>
+    <col min="1794" max="1799" width="10.85546875" customWidth="1"/>
+    <col min="2049" max="2049" width="31.7109375" customWidth="1"/>
+    <col min="2050" max="2055" width="10.85546875" customWidth="1"/>
+    <col min="2305" max="2305" width="31.7109375" customWidth="1"/>
+    <col min="2306" max="2311" width="10.85546875" customWidth="1"/>
+    <col min="2561" max="2561" width="31.7109375" customWidth="1"/>
+    <col min="2562" max="2567" width="10.85546875" customWidth="1"/>
+    <col min="2817" max="2817" width="31.7109375" customWidth="1"/>
+    <col min="2818" max="2823" width="10.85546875" customWidth="1"/>
+    <col min="3073" max="3073" width="31.7109375" customWidth="1"/>
+    <col min="3074" max="3079" width="10.85546875" customWidth="1"/>
+    <col min="3329" max="3329" width="31.7109375" customWidth="1"/>
+    <col min="3330" max="3335" width="10.85546875" customWidth="1"/>
+    <col min="3585" max="3585" width="31.7109375" customWidth="1"/>
+    <col min="3586" max="3591" width="10.85546875" customWidth="1"/>
+    <col min="3841" max="3841" width="31.7109375" customWidth="1"/>
+    <col min="3842" max="3847" width="10.85546875" customWidth="1"/>
+    <col min="4097" max="4097" width="31.7109375" customWidth="1"/>
+    <col min="4098" max="4103" width="10.85546875" customWidth="1"/>
+    <col min="4353" max="4353" width="31.7109375" customWidth="1"/>
+    <col min="4354" max="4359" width="10.85546875" customWidth="1"/>
+    <col min="4609" max="4609" width="31.7109375" customWidth="1"/>
+    <col min="4610" max="4615" width="10.85546875" customWidth="1"/>
+    <col min="4865" max="4865" width="31.7109375" customWidth="1"/>
+    <col min="4866" max="4871" width="10.85546875" customWidth="1"/>
+    <col min="5121" max="5121" width="31.7109375" customWidth="1"/>
+    <col min="5122" max="5127" width="10.85546875" customWidth="1"/>
+    <col min="5377" max="5377" width="31.7109375" customWidth="1"/>
+    <col min="5378" max="5383" width="10.85546875" customWidth="1"/>
+    <col min="5633" max="5633" width="31.7109375" customWidth="1"/>
+    <col min="5634" max="5639" width="10.85546875" customWidth="1"/>
+    <col min="5889" max="5889" width="31.7109375" customWidth="1"/>
+    <col min="5890" max="5895" width="10.85546875" customWidth="1"/>
+    <col min="6145" max="6145" width="31.7109375" customWidth="1"/>
+    <col min="6146" max="6151" width="10.85546875" customWidth="1"/>
+    <col min="6401" max="6401" width="31.7109375" customWidth="1"/>
+    <col min="6402" max="6407" width="10.85546875" customWidth="1"/>
+    <col min="6657" max="6657" width="31.7109375" customWidth="1"/>
+    <col min="6658" max="6663" width="10.85546875" customWidth="1"/>
+    <col min="6913" max="6913" width="31.7109375" customWidth="1"/>
+    <col min="6914" max="6919" width="10.85546875" customWidth="1"/>
+    <col min="7169" max="7169" width="31.7109375" customWidth="1"/>
+    <col min="7170" max="7175" width="10.85546875" customWidth="1"/>
+    <col min="7425" max="7425" width="31.7109375" customWidth="1"/>
+    <col min="7426" max="7431" width="10.85546875" customWidth="1"/>
+    <col min="7681" max="7681" width="31.7109375" customWidth="1"/>
+    <col min="7682" max="7687" width="10.85546875" customWidth="1"/>
+    <col min="7937" max="7937" width="31.7109375" customWidth="1"/>
+    <col min="7938" max="7943" width="10.85546875" customWidth="1"/>
+    <col min="8193" max="8193" width="31.7109375" customWidth="1"/>
+    <col min="8194" max="8199" width="10.85546875" customWidth="1"/>
+    <col min="8449" max="8449" width="31.7109375" customWidth="1"/>
+    <col min="8450" max="8455" width="10.85546875" customWidth="1"/>
+    <col min="8705" max="8705" width="31.7109375" customWidth="1"/>
+    <col min="8706" max="8711" width="10.85546875" customWidth="1"/>
+    <col min="8961" max="8961" width="31.7109375" customWidth="1"/>
+    <col min="8962" max="8967" width="10.85546875" customWidth="1"/>
+    <col min="9217" max="9217" width="31.7109375" customWidth="1"/>
+    <col min="9218" max="9223" width="10.85546875" customWidth="1"/>
+    <col min="9473" max="9473" width="31.7109375" customWidth="1"/>
+    <col min="9474" max="9479" width="10.85546875" customWidth="1"/>
+    <col min="9729" max="9729" width="31.7109375" customWidth="1"/>
+    <col min="9730" max="9735" width="10.85546875" customWidth="1"/>
+    <col min="9985" max="9985" width="31.7109375" customWidth="1"/>
+    <col min="9986" max="9991" width="10.85546875" customWidth="1"/>
+    <col min="10241" max="10241" width="31.7109375" customWidth="1"/>
+    <col min="10242" max="10247" width="10.85546875" customWidth="1"/>
+    <col min="10497" max="10497" width="31.7109375" customWidth="1"/>
+    <col min="10498" max="10503" width="10.85546875" customWidth="1"/>
+    <col min="10753" max="10753" width="31.7109375" customWidth="1"/>
+    <col min="10754" max="10759" width="10.85546875" customWidth="1"/>
+    <col min="11009" max="11009" width="31.7109375" customWidth="1"/>
+    <col min="11010" max="11015" width="10.85546875" customWidth="1"/>
+    <col min="11265" max="11265" width="31.7109375" customWidth="1"/>
+    <col min="11266" max="11271" width="10.85546875" customWidth="1"/>
+    <col min="11521" max="11521" width="31.7109375" customWidth="1"/>
+    <col min="11522" max="11527" width="10.85546875" customWidth="1"/>
+    <col min="11777" max="11777" width="31.7109375" customWidth="1"/>
+    <col min="11778" max="11783" width="10.85546875" customWidth="1"/>
+    <col min="12033" max="12033" width="31.7109375" customWidth="1"/>
+    <col min="12034" max="12039" width="10.85546875" customWidth="1"/>
+    <col min="12289" max="12289" width="31.7109375" customWidth="1"/>
+    <col min="12290" max="12295" width="10.85546875" customWidth="1"/>
+    <col min="12545" max="12545" width="31.7109375" customWidth="1"/>
+    <col min="12546" max="12551" width="10.85546875" customWidth="1"/>
+    <col min="12801" max="12801" width="31.7109375" customWidth="1"/>
+    <col min="12802" max="12807" width="10.85546875" customWidth="1"/>
+    <col min="13057" max="13057" width="31.7109375" customWidth="1"/>
+    <col min="13058" max="13063" width="10.85546875" customWidth="1"/>
+    <col min="13313" max="13313" width="31.7109375" customWidth="1"/>
+    <col min="13314" max="13319" width="10.85546875" customWidth="1"/>
+    <col min="13569" max="13569" width="31.7109375" customWidth="1"/>
+    <col min="13570" max="13575" width="10.85546875" customWidth="1"/>
+    <col min="13825" max="13825" width="31.7109375" customWidth="1"/>
+    <col min="13826" max="13831" width="10.85546875" customWidth="1"/>
+    <col min="14081" max="14081" width="31.7109375" customWidth="1"/>
+    <col min="14082" max="14087" width="10.85546875" customWidth="1"/>
+    <col min="14337" max="14337" width="31.7109375" customWidth="1"/>
+    <col min="14338" max="14343" width="10.85546875" customWidth="1"/>
+    <col min="14593" max="14593" width="31.7109375" customWidth="1"/>
+    <col min="14594" max="14599" width="10.85546875" customWidth="1"/>
+    <col min="14849" max="14849" width="31.7109375" customWidth="1"/>
+    <col min="14850" max="14855" width="10.85546875" customWidth="1"/>
+    <col min="15105" max="15105" width="31.7109375" customWidth="1"/>
+    <col min="15106" max="15111" width="10.85546875" customWidth="1"/>
+    <col min="15361" max="15361" width="31.7109375" customWidth="1"/>
+    <col min="15362" max="15367" width="10.85546875" customWidth="1"/>
+    <col min="15617" max="15617" width="31.7109375" customWidth="1"/>
+    <col min="15618" max="15623" width="10.85546875" customWidth="1"/>
+    <col min="15873" max="15873" width="31.7109375" customWidth="1"/>
+    <col min="15874" max="15879" width="10.85546875" customWidth="1"/>
+    <col min="16129" max="16129" width="31.7109375" customWidth="1"/>
+    <col min="16130" max="16135" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B1" s="31"/>
     </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -29923,10 +29934,10 @@
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -29934,41 +29945,41 @@
       <c r="F3" s="34"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="28"/>
       <c r="C4" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27"/>
       <c r="B5" s="26" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="E5" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>587</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>586</v>
-      </c>
-      <c r="G5" s="26" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="B6" s="24">
         <v>123.53</v>
@@ -29989,9 +30000,9 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>1</v>
@@ -30012,9 +30023,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="13">
         <v>21.92</v>
@@ -30035,9 +30046,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="13">
         <v>5.88</v>
@@ -30058,9 +30069,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="13">
         <v>16.04</v>
@@ -30081,9 +30092,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="13">
         <v>27.04</v>
@@ -30104,9 +30115,9 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="13">
         <v>18.55</v>
@@ -30127,9 +30138,9 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="13">
         <v>8.5</v>
@@ -30150,9 +30161,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="13">
         <v>46.84</v>
@@ -30173,9 +30184,9 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="13">
         <v>24.84</v>
@@ -30196,9 +30207,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="13">
         <v>7.38</v>
@@ -30219,9 +30230,9 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="13">
         <v>14.62</v>
@@ -30242,9 +30253,9 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="13">
         <v>27.72</v>
@@ -30265,9 +30276,9 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="13">
         <v>9.2200000000000006</v>
@@ -30288,9 +30299,9 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="13">
         <v>4.62</v>
@@ -30311,9 +30322,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="13">
         <v>4.5999999999999996</v>
@@ -30334,9 +30345,9 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="13">
         <v>18.510000000000002</v>
@@ -30357,9 +30368,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>1</v>
@@ -30380,9 +30391,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="13">
         <v>100.44</v>
@@ -30403,9 +30414,9 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="13">
         <v>89.24</v>
@@ -30426,9 +30437,9 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="13">
         <v>11.2</v>
@@ -30449,9 +30460,9 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="13">
         <v>23.09</v>
@@ -30472,9 +30483,9 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>1</v>
@@ -30495,9 +30506,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="13">
         <v>42.5</v>
@@ -30518,9 +30529,9 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="13">
         <v>36.79</v>
@@ -30541,9 +30552,9 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="13">
         <v>15.06</v>
@@ -30564,9 +30575,9 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="13">
         <v>22.31</v>
@@ -30587,9 +30598,9 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="13">
         <v>6.87</v>
@@ -30610,9 +30621,9 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>1</v>
@@ -30633,9 +30644,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="13">
         <v>20.260000000000002</v>
@@ -30656,9 +30667,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="13">
         <v>12.48</v>
@@ -30679,9 +30690,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="13">
         <v>12.76</v>
@@ -30702,9 +30713,9 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="13">
         <v>18.34</v>
@@ -30725,9 +30736,9 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="13">
         <v>16.3</v>
@@ -30748,9 +30759,9 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="13">
         <v>17.16</v>
@@ -30771,9 +30782,9 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="13">
         <v>16.16</v>
@@ -30794,9 +30805,9 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="13">
         <v>5.53</v>
@@ -30817,9 +30828,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B43" s="13">
         <v>4.5599999999999996</v>
@@ -30840,9 +30851,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>1</v>
@@ -30863,9 +30874,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B45" s="13">
         <v>47.15</v>
@@ -30877,18 +30888,18 @@
         <v>2.57</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B46" s="13">
         <v>32.47</v>
@@ -30900,18 +30911,18 @@
         <v>3.94</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B47" s="13">
         <v>2.61</v>
@@ -30923,18 +30934,18 @@
         <v>0.85</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B48" s="13">
         <v>2.2799999999999998</v>
@@ -30946,27 +30957,27 @@
         <v>0.09</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="13">
         <v>39.01</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E49" s="13">
         <v>9.34</v>
@@ -30978,9 +30989,9 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>1</v>
@@ -31001,9 +31012,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B51" s="13">
         <v>45.44</v>
@@ -31024,9 +31035,9 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="13">
         <v>33.369999999999997</v>
@@ -31047,9 +31058,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="13">
         <v>18.8</v>
@@ -31070,9 +31081,9 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="13">
         <v>15.65</v>
@@ -31093,9 +31104,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B55" s="13">
         <v>6.42</v>
@@ -31113,12 +31124,12 @@
         <v>2.56</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B56" s="13">
         <v>1.89</v>
@@ -31139,9 +31150,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="13">
         <v>1.46</v>
@@ -31159,12 +31170,12 @@
         <v>0.31</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" s="13">
         <v>0.5</v>
@@ -31173,21 +31184,21 @@
         <v>0.26</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F58" s="13">
         <v>0.14000000000000001</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>1</v>
@@ -31208,9 +31219,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" s="13">
         <v>76.03</v>
@@ -31225,15 +31236,15 @@
         <v>5.89</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G60" s="13">
         <v>3.09</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" s="13">
         <v>9.69</v>
@@ -31248,15 +31259,15 @@
         <v>0.46</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G61" s="13">
         <v>3.08</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62" s="13">
         <v>5.19</v>
@@ -31271,15 +31282,15 @@
         <v>1.23</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G62" s="13">
         <v>0.35</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" s="13">
         <v>4.8899999999999997</v>
@@ -31294,15 +31305,15 @@
         <v>0.66</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" s="13">
         <v>2.14</v>
@@ -31317,15 +31328,15 @@
         <v>0.43</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65" s="13">
         <v>1.49</v>
@@ -31340,15 +31351,15 @@
         <v>0.51</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G65" s="13">
         <v>0.08</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="13">
         <v>1.26</v>
@@ -31363,38 +31374,38 @@
         <v>0.15</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G66" s="13">
         <v>0.18</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="13">
         <v>22.84</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F67" s="13">
         <v>22.84</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>1</v>
@@ -31415,9 +31426,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" s="13">
         <v>4.59</v>
@@ -31438,7 +31449,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>3</v>
       </c>
@@ -31461,7 +31472,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>4</v>
       </c>
@@ -31484,7 +31495,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <v>5</v>
       </c>
@@ -31507,7 +31518,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <v>6</v>
       </c>
@@ -31530,7 +31541,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
         <v>7</v>
       </c>
@@ -31553,7 +31564,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>8</v>
       </c>
@@ -31576,9 +31587,9 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76" s="13">
         <v>19.899999999999999</v>
@@ -31599,9 +31610,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>1</v>
@@ -31622,7 +31633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>0</v>
       </c>
@@ -31633,7 +31644,7 @@
         <v>0.1</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E78" s="13">
         <v>0.32</v>
@@ -31642,10 +31653,10 @@
         <v>1.36</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>1</v>
       </c>
@@ -31668,7 +31679,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>2</v>
       </c>
@@ -31691,7 +31702,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
         <v>3</v>
       </c>
@@ -31714,7 +31725,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>4</v>
       </c>
@@ -31737,9 +31748,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="13">
         <v>6.16</v>
@@ -31754,15 +31765,15 @@
         <v>0.13</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G83" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>1</v>
@@ -31783,7 +31794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>1</v>
       </c>
@@ -31806,7 +31817,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>2</v>
       </c>
@@ -31829,7 +31840,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21">
         <v>3</v>
       </c>
@@ -31852,7 +31863,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="21">
         <v>4</v>
       </c>
@@ -31875,9 +31886,9 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="13">
         <v>27.64</v>
@@ -31898,9 +31909,9 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>1</v>
@@ -31921,7 +31932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
         <v>0</v>
       </c>
@@ -31932,19 +31943,19 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
         <v>1</v>
       </c>
@@ -31967,7 +31978,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21">
         <v>2</v>
       </c>
@@ -31990,9 +32001,9 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="13">
         <v>16.21</v>
@@ -32013,9 +32024,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="17" t="s">
         <v>1</v>
@@ -32036,7 +32047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
         <v>0</v>
       </c>
@@ -32059,7 +32070,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="21">
         <v>1</v>
       </c>
@@ -32082,9 +32093,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="13">
         <v>2.91</v>
@@ -32105,9 +32116,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B99" s="17" t="s">
         <v>1</v>
@@ -32128,9 +32139,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B100" s="13">
         <v>36.83</v>
@@ -32142,18 +32153,18 @@
         <v>2.98</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="13">
         <v>21.71</v>
@@ -32165,18 +32176,18 @@
         <v>1.87</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="13">
         <v>15.12</v>
@@ -32188,18 +32199,18 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B103" s="13">
         <v>47.68</v>
@@ -32211,27 +32222,27 @@
         <v>4.47</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B104" s="13">
         <v>39.01</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E104" s="13">
         <v>9.34</v>
@@ -32243,9 +32254,9 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="17" t="s">
         <v>1</v>
@@ -32266,9 +32277,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B106" s="13">
         <v>56.5</v>
@@ -32280,18 +32291,18 @@
         <v>3.52</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107" s="13">
         <v>7.68</v>
@@ -32303,18 +32314,18 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="13">
         <v>48.83</v>
@@ -32326,18 +32337,18 @@
         <v>2.94</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B109" s="13">
         <v>28.01</v>
@@ -32349,27 +32360,27 @@
         <v>3.94</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B110" s="13">
         <v>39.01</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E110" s="13">
         <v>9.34</v>
@@ -32381,9 +32392,9 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>1</v>
@@ -32404,9 +32415,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B112" s="13">
         <v>51.79</v>
@@ -32418,18 +32429,18 @@
         <v>3.6</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B113" s="13">
         <v>11.27</v>
@@ -32441,18 +32452,18 @@
         <v>1.64</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B114" s="13">
         <v>34.18</v>
@@ -32464,18 +32475,18 @@
         <v>1.91</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115" s="13">
         <v>6.34</v>
@@ -32487,18 +32498,18 @@
         <v>0.06</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B116" s="13">
         <v>32.72</v>
@@ -32510,27 +32521,27 @@
         <v>3.85</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B117" s="13">
         <v>39.01</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E117" s="13">
         <v>9.34</v>
@@ -32542,9 +32553,9 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B118" s="17" t="s">
         <v>1</v>
@@ -32565,9 +32576,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B119" s="13">
         <v>34.340000000000003</v>
@@ -32588,9 +32599,9 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B120" s="13">
         <v>64.27</v>
@@ -32611,9 +32622,9 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B121" s="13">
         <v>21.29</v>
@@ -32634,9 +32645,9 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B122" s="13">
         <v>3.63</v>
@@ -32657,9 +32668,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B123" s="17" t="s">
         <v>1</v>
@@ -32680,9 +32691,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B124" s="13">
         <v>55.37</v>
@@ -32703,9 +32714,9 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B125" s="13">
         <v>52.63</v>
@@ -32726,9 +32737,9 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B126" s="13">
         <v>10.39</v>
@@ -32749,9 +32760,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B127" s="13">
         <v>5.14</v>
@@ -32772,9 +32783,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B128" s="17" t="s">
         <v>1</v>
@@ -32795,9 +32806,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B129" s="13">
         <v>55.18</v>
@@ -32815,12 +32826,12 @@
         <v>8.75</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B130" s="13">
         <v>61.52</v>
@@ -32838,35 +32849,35 @@
         <v>14.08</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B131" s="13">
         <v>6.83</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G131" s="13">
         <v>6.83</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B132" s="17" t="s">
         <v>1</v>
@@ -32887,9 +32898,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B133" s="13">
         <v>6.95</v>
@@ -32907,12 +32918,12 @@
         <v>5.85</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B134" s="13">
         <v>18.149999999999999</v>
@@ -32933,9 +32944,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B135" s="13">
         <v>29.35</v>
@@ -32956,9 +32967,9 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B136" s="13">
         <v>38.42</v>
@@ -32979,9 +32990,9 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B137" s="13">
         <v>13.61</v>
@@ -33002,9 +33013,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B138" s="13">
         <v>12.43</v>
@@ -33019,15 +33030,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G138" s="13">
         <v>0.13</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B139" s="13">
         <v>4.62</v>
@@ -33042,15 +33053,15 @@
         <v>0.09</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B140" s="17" t="s">
         <v>1</v>
@@ -33071,9 +33082,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B141" s="13">
         <v>43.51</v>
@@ -33094,9 +33105,9 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B142" s="13">
         <v>77.95</v>
@@ -33117,9 +33128,9 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B143" s="13">
         <v>2.0699999999999998</v>
@@ -33137,12 +33148,12 @@
         <v>0.27</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>1</v>
@@ -33163,9 +33174,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B145" s="13">
         <v>47.4</v>
@@ -33186,9 +33197,9 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B146" s="13">
         <v>40.31</v>
@@ -33209,9 +33220,9 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B147" s="13">
         <v>31.85</v>
@@ -33232,9 +33243,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B148" s="13">
         <v>1.72</v>
@@ -33255,9 +33266,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B149" s="13">
         <v>2.25</v>
@@ -33275,12 +33286,12 @@
         <v>0.3</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>1</v>
@@ -33301,7 +33312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="21">
         <v>0</v>
       </c>
@@ -33324,7 +33335,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="21">
         <v>1</v>
       </c>
@@ -33347,7 +33358,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="21">
         <v>2</v>
       </c>
@@ -33370,9 +33381,9 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B154" s="13">
         <v>8.16</v>
@@ -33393,9 +33404,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" s="17" t="s">
         <v>1</v>
@@ -33416,9 +33427,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B156" s="13">
         <v>34.299999999999997</v>
@@ -33439,9 +33450,9 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B157" s="13">
         <v>36.81</v>
@@ -33462,9 +33473,9 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B158" s="13">
         <v>52.42</v>
@@ -33485,9 +33496,9 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B159" s="17" t="s">
         <v>1</v>
@@ -33508,9 +33519,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B160" s="13">
         <v>67.83</v>
@@ -33525,15 +33536,15 @@
         <v>2.11</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G160" s="13">
         <v>3.41</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B161" s="13">
         <v>32.869999999999997</v>
@@ -33548,38 +33559,38 @@
         <v>7.23</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G161" s="13">
         <v>3.42</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B162" s="13">
         <v>22.84</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F162" s="13">
         <v>22.84</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B163" s="22" t="s">
         <v>1</v>
@@ -33600,9 +33611,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B164" s="22">
         <v>1.82</v>
@@ -33614,18 +33625,18 @@
         <v>0.11</v>
       </c>
       <c r="E164" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F164" s="22">
         <v>0.17</v>
       </c>
       <c r="G164" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B165" s="22">
         <v>1.39</v>
@@ -33637,18 +33648,18 @@
         <v>0.09</v>
       </c>
       <c r="E165" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F165" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G165" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B166" s="22">
         <v>121.71</v>
@@ -33669,9 +33680,9 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B167" s="19" t="s">
         <v>1</v>
@@ -33692,9 +33703,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B168" s="13">
         <v>84.52</v>
@@ -33715,9 +33726,9 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B169" s="13">
         <v>69.489999999999995</v>
@@ -33738,9 +33749,9 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B170" s="13">
         <v>15.03</v>
@@ -33761,9 +33772,9 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B171" s="13">
         <v>39.01</v>
@@ -33784,9 +33795,9 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B172" s="17" t="s">
         <v>1</v>
@@ -33807,9 +33818,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B173" s="13">
         <v>3.37</v>
@@ -33821,18 +33832,18 @@
         <v>0.11</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G173" s="13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B174" s="13">
         <v>87.98</v>
@@ -33844,27 +33855,27 @@
         <v>7.34</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G174" s="13">
         <v>6.73</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B175" s="13">
         <v>32.18</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D175" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E175" s="13">
         <v>9.34</v>
@@ -33873,12 +33884,12 @@
         <v>22.84</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A176" s="19" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B176" s="17" t="s">
         <v>1</v>
@@ -33899,9 +33910,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B177" s="13">
         <v>22.72</v>
@@ -33922,9 +33933,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B178" s="13">
         <v>19</v>
@@ -33945,9 +33956,9 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B179" s="13">
         <v>0.25</v>
@@ -33956,21 +33967,21 @@
         <v>0.15</v>
       </c>
       <c r="D179" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E179" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F179" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B180" s="13">
         <v>3.08</v>
@@ -33991,9 +34002,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B181" s="13">
         <v>0.39</v>
@@ -34002,21 +34013,21 @@
         <v>0.16</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F181" s="13">
         <v>0.18</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B182" s="13">
         <v>100.81</v>
@@ -34037,9 +34048,9 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B183" s="17" t="s">
         <v>1</v>
@@ -34060,9 +34071,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B184" s="13">
         <v>17.66</v>
@@ -34083,9 +34094,9 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B185" s="13">
         <v>105.87</v>
@@ -34106,9 +34117,9 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B186" s="17" t="s">
         <v>1</v>
@@ -34129,9 +34140,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B187" s="13">
         <v>8.52</v>
@@ -34143,18 +34154,18 @@
         <v>0.2</v>
       </c>
       <c r="E187" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G187" s="13">
         <v>0.23</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B188" s="13">
         <v>82.83</v>
@@ -34166,27 +34177,27 @@
         <v>7.25</v>
       </c>
       <c r="E188" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G188" s="13">
         <v>6.6</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B189" s="13">
         <v>32.18</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D189" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E189" s="13">
         <v>9.34</v>
@@ -34195,12 +34206,12 @@
         <v>22.84</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B190" s="17" t="s">
         <v>1</v>
@@ -34221,9 +34232,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B191" s="13">
         <v>1.9</v>
@@ -34235,18 +34246,18 @@
         <v>0.06</v>
       </c>
       <c r="E191" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F191" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B192" s="13">
         <v>5.08</v>
@@ -34258,18 +34269,18 @@
         <v>0.1</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G192" s="13">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B193" s="13">
         <v>1.54</v>
@@ -34278,21 +34289,21 @@
         <v>1.48</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B194" s="13">
         <v>82.83</v>
@@ -34304,27 +34315,27 @@
         <v>7.25</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G194" s="13">
         <v>6.6</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B195" s="13">
         <v>32.18</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E195" s="13">
         <v>9.34</v>
@@ -34333,12 +34344,12 @@
         <v>22.84</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B196" s="17" t="s">
         <v>1</v>
@@ -34359,9 +34370,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B197" s="13">
         <v>2.89</v>
@@ -34373,18 +34384,18 @@
         <v>0.05</v>
       </c>
       <c r="E197" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B198" s="13">
         <v>0.85</v>
@@ -34393,21 +34404,21 @@
         <v>0.82</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E198" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B199" s="13">
         <v>1.32</v>
@@ -34416,21 +34427,21 @@
         <v>1.3</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E199" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B200" s="13">
         <v>0.28999999999999998</v>
@@ -34439,21 +34450,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F200" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B201" s="13">
         <v>0.42</v>
@@ -34462,21 +34473,21 @@
         <v>0.42</v>
       </c>
       <c r="D201" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F201" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B202" s="13">
         <v>5.63</v>
@@ -34488,18 +34499,18 @@
         <v>0.15</v>
       </c>
       <c r="E202" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F202" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G202" s="13">
         <v>0.22</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B203" s="13">
         <v>82.83</v>
@@ -34511,27 +34522,27 @@
         <v>7.25</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F203" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G203" s="13">
         <v>6.6</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B204" s="13">
         <v>32.18</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E204" s="13">
         <v>9.34</v>
@@ -34540,12 +34551,12 @@
         <v>22.84</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B205" s="17" t="s">
         <v>1</v>
@@ -34566,9 +34577,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B206" s="13">
         <v>8.84</v>
@@ -34589,9 +34600,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B207" s="13">
         <v>114.69</v>
@@ -34612,9 +34623,9 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B208" s="17" t="s">
         <v>1</v>
@@ -34635,9 +34646,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B209" s="13">
         <v>4.22</v>
@@ -34658,9 +34669,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B210" s="13">
         <v>1.27</v>
@@ -34669,21 +34680,21 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D210" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E210" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B211" s="13">
         <v>3.35</v>
@@ -34695,7 +34706,7 @@
         <v>0.08</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F211" s="13">
         <v>0.21</v>
@@ -34704,9 +34715,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B212" s="13">
         <v>114.69</v>
@@ -34727,9 +34738,9 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B213" s="17" t="s">
         <v>1</v>
@@ -34750,9 +34761,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B214" s="13">
         <v>4.41</v>
@@ -34764,7 +34775,7 @@
         <v>0.1</v>
       </c>
       <c r="E214" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F214" s="13">
         <v>0.24</v>
@@ -34773,9 +34784,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B215" s="13">
         <v>1.47</v>
@@ -34787,18 +34798,18 @@
         <v>0.04</v>
       </c>
       <c r="E215" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F215" s="13">
         <v>0.11</v>
       </c>
       <c r="G215" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B216" s="13">
         <v>0.36</v>
@@ -34807,21 +34818,21 @@
         <v>0.32</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E216" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F216" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G216" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B217" s="13">
         <v>2.6</v>
@@ -34833,7 +34844,7 @@
         <v>0.12</v>
       </c>
       <c r="E217" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F217" s="13">
         <v>0.34</v>
@@ -34842,9 +34853,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B218" s="13">
         <v>114.69</v>
@@ -34865,7 +34876,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="16"/>
       <c r="B219" s="15"/>
       <c r="C219" s="15"/>
@@ -34874,7 +34885,7 @@
       <c r="F219" s="15"/>
       <c r="G219" s="15"/>
     </row>
-    <row r="220" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="14"/>
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
@@ -34883,9 +34894,9 @@
       <c r="F220" s="13"/>
       <c r="G220" s="13"/>
     </row>
-    <row r="221" spans="1:7" s="5" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" s="5" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="37" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B221" s="37"/>
       <c r="C221" s="37"/>
@@ -34894,7 +34905,7 @@
       <c r="F221" s="37"/>
       <c r="G221" s="37"/>
     </row>
-    <row r="222" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -34903,7 +34914,7 @@
       <c r="F222"/>
       <c r="G222"/>
     </row>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -34921,34 +34932,33 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="4" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="9">
         <v>0</v>
@@ -34960,9 +34970,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>592</v>
       </c>
       <c r="B3" s="9">
         <f>INDEX('AEO Table 21'!$E$77:$AK$77,MATCH(About!$A$22,'AEO Table 21'!$E$5:$AK$5,0))*GW_to_MW*About!$A$25</f>
@@ -34972,28 +34982,28 @@
         <f>INDEX('AEO Table 21'!$E$77:$AK$77,MATCH(About!$A$22,'AEO Table 21'!$E$5:$AK$5,0))*GW_to_MW*About!$A$25</f>
         <v>0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
         <f>INDEX('AEO Table 22'!$E$60:$AK$60,MATCH(About!$A$22,'AEO Table 22'!$E$5:$AK$5,0))*GW_to_MW</f>
         <v>1446.7280000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -35005,57 +35015,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="9">
         <f>INDEX('AEO Table 21'!$E$79:$AK$79,MATCH(About!$A$22,'AEO Table 21'!$E$5:$AK$5,0))*GW_to_MW*About!$A$25</f>
         <v>11.448192341941228</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="9">
         <f>INDEX('AEO Table 21'!$E$79:$AK$79,MATCH(About!$A$22,'AEO Table 21'!$E$5:$AK$5,0))*GW_to_MW*About!$A$26</f>
         <v>2.6318076580587713</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <f>INDEX('AEO Table 22'!$E$62:$AK$62,MATCH(About!$A$22,'AEO Table 22'!$E$5:$AK$5,0))*GW_to_MW</f>
         <v>554.88099999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
         <f>INDEX('AEO Table 21'!$E$78:$AK$78,MATCH(About!$A$22,'AEO Table 21'!$E$5:$AK$5,0))*GW_to_MW*About!$A$25</f>
         <v>12498.011906743301</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C8" s="9">
         <f>INDEX('AEO Table 21'!$E$78:$AK$78,MATCH(About!$A$22,'AEO Table 21'!$E$5:$AK$5,0))*GW_to_MW*About!$A$26</f>
         <v>2873.1490932566985</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="9">
         <f>INDEX('AEO Table 22'!$E$61:$AK$61,MATCH(About!$A$22,'AEO Table 22'!$E$5:$AK$5,0))*GW_to_MW</f>
         <v>14908.906999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
@@ -35067,9 +35077,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
@@ -35081,9 +35091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
@@ -35092,27 +35102,27 @@
         <v>0</v>
       </c>
       <c r="D11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
         <f>INDEX('AEO Table 22'!$E$59:$AK$59,MATCH(About!$A$22,'AEO Table 22'!$E$5:$AK$5,0))*GW_to_MW</f>
         <v>21.495000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B13" s="9">
         <v>0</v>
@@ -35124,9 +35134,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B14" s="9">
         <v>0</v>
@@ -35138,9 +35148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="B15" s="9">
         <v>0</v>
@@ -35152,9 +35162,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="9">
         <v>0</v>
@@ -35166,9 +35176,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="9">
         <v>0</v>
@@ -35177,6 +35187,20 @@
         <v>0</v>
       </c>
       <c r="D17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
         <v>0</v>
       </c>
     </row>

--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS US\InputData\bldgs\SYDEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\bldgs\SYDEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4C9A61-B8D4-411D-9FEA-5113CB483B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71857E9-CBEA-41F2-BB27-BB1134E561B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32520" yWindow="3060" windowWidth="21600" windowHeight="11295" tabRatio="670" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="Table5_A">'[1]AEO21 Table 5'!$A$29:$A$58</definedName>
     <definedName name="Table5_A_22">'[1]AEO22 Table 5'!$A$29:$A$58</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="547">
   <si>
     <t>Energy Information Administration</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Commercial Building Floorspace</t>
-  </si>
-  <si>
-    <t>natural gas nonpeaker</t>
   </si>
   <si>
     <t>nuclear</t>
@@ -1843,6 +1840,12 @@
   </si>
   <si>
     <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_OTH_NA_NA_TRLBTU.A</t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
   </si>
 </sst>
 </file>
@@ -14831,7 +14834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -14842,15 +14845,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14865,22 +14868,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -14895,42 +14898,42 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14940,7 +14943,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -14949,7 +14952,7 @@
         <v>0.81308184246741677</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -14958,7 +14961,7 @@
         <v>0.18691815753258317</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -14966,7 +14969,7 @@
         <v>1000</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -14994,33 +14997,33 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
         <v>174</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>175</v>
-      </c>
-      <c r="D5" t="s">
-        <v>176</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -15119,7 +15122,7 @@
         <v>2050</v>
       </c>
       <c r="AK5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -15129,21 +15132,21 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" t="s">
         <v>178</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D8" t="s">
         <v>179</v>
-      </c>
-      <c r="C8" t="s">
-        <v>428</v>
-      </c>
-      <c r="D8" t="s">
-        <v>180</v>
       </c>
       <c r="F8">
         <v>12.588214000000001</v>
@@ -15244,16 +15247,16 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" t="s">
         <v>181</v>
       </c>
-      <c r="B9" t="s">
-        <v>182</v>
-      </c>
       <c r="C9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F9">
         <v>30.217645999999998</v>
@@ -15354,16 +15357,16 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
         <v>183</v>
       </c>
-      <c r="B10" t="s">
-        <v>184</v>
-      </c>
       <c r="C10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F10">
         <v>1.3117239999999999</v>
@@ -15464,16 +15467,16 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s">
         <v>185</v>
       </c>
-      <c r="B11" t="s">
-        <v>186</v>
-      </c>
       <c r="C11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F11">
         <v>60.555110999999997</v>
@@ -15574,16 +15577,16 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" t="s">
         <v>187</v>
       </c>
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
       <c r="C12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F12">
         <v>5.548133</v>
@@ -15684,16 +15687,16 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13">
         <v>5.1948600000000003</v>
@@ -15794,16 +15797,16 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" t="s">
         <v>190</v>
       </c>
-      <c r="B14" t="s">
-        <v>191</v>
-      </c>
       <c r="C14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F14">
         <v>2.8969999999999998E-3</v>
@@ -15904,16 +15907,16 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" t="s">
         <v>192</v>
       </c>
-      <c r="B15" t="s">
-        <v>193</v>
-      </c>
       <c r="C15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F15">
         <v>3.344913</v>
@@ -16014,16 +16017,16 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" t="s">
         <v>194</v>
       </c>
-      <c r="B16" t="s">
-        <v>195</v>
-      </c>
       <c r="C16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F16">
         <v>0.65997300000000003</v>
@@ -16124,16 +16127,16 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" t="s">
         <v>196</v>
       </c>
-      <c r="B17" t="s">
-        <v>197</v>
-      </c>
       <c r="C17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F17">
         <v>119.42347700000001</v>
@@ -16234,21 +16237,21 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F19">
         <v>12.58821</v>
@@ -16349,16 +16352,16 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F20">
         <v>1.3117239999999999</v>
@@ -16459,16 +16462,16 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F21">
         <v>0.65997300000000003</v>
@@ -16569,16 +16572,16 @@
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" t="s">
         <v>202</v>
       </c>
-      <c r="B22" t="s">
-        <v>203</v>
-      </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F22">
         <v>62.428100999999998</v>
@@ -16679,16 +16682,16 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" t="s">
         <v>204</v>
       </c>
-      <c r="B23" t="s">
-        <v>205</v>
-      </c>
       <c r="C23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F23">
         <v>57.979027000000002</v>
@@ -16789,16 +16792,16 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F24">
         <v>134.96704099999999</v>
@@ -16899,21 +16902,21 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" t="s">
         <v>208</v>
       </c>
-      <c r="B26" t="s">
-        <v>209</v>
-      </c>
       <c r="C26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F26">
         <v>59.144027999999999</v>
@@ -17014,16 +17017,16 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" t="s">
         <v>210</v>
       </c>
-      <c r="B27" t="s">
-        <v>211</v>
-      </c>
       <c r="C27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F27">
         <v>60.065722999999998</v>
@@ -17124,16 +17127,16 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F28">
         <v>2.6456879999999998</v>
@@ -17234,16 +17237,16 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F29">
         <v>4.0547959999999996</v>
@@ -17344,16 +17347,16 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" t="s">
         <v>214</v>
       </c>
-      <c r="B30" t="s">
-        <v>215</v>
-      </c>
       <c r="C30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F30">
         <v>1.6193390000000001</v>
@@ -17454,16 +17457,16 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F31">
         <v>127.529572</v>
@@ -17564,21 +17567,21 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F33">
         <v>96.368851000000006</v>
@@ -17679,16 +17682,16 @@
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C34" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F34">
         <v>47.877865</v>
@@ -17789,16 +17792,16 @@
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F35">
         <v>7.1852200000000002</v>
@@ -17899,16 +17902,16 @@
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F36">
         <v>151.43194600000001</v>
@@ -18009,21 +18012,21 @@
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F38">
         <v>82.851837000000003</v>
@@ -18124,16 +18127,16 @@
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F39">
         <v>19.328499000000001</v>
@@ -18234,16 +18237,16 @@
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F40">
         <v>102.180336</v>
@@ -18344,21 +18347,21 @@
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" t="s">
         <v>227</v>
       </c>
-      <c r="B42" t="s">
-        <v>228</v>
-      </c>
       <c r="C42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F42">
         <v>168.42892499999999</v>
@@ -18459,16 +18462,16 @@
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>228</v>
+      </c>
+      <c r="B43" t="s">
         <v>229</v>
       </c>
-      <c r="B43" t="s">
-        <v>230</v>
-      </c>
       <c r="C43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F43">
         <v>44.426056000000003</v>
@@ -18574,21 +18577,21 @@
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" t="s">
         <v>231</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>458</v>
+      </c>
+      <c r="D46" t="s">
         <v>232</v>
-      </c>
-      <c r="C46" t="s">
-        <v>459</v>
-      </c>
-      <c r="D46" t="s">
-        <v>233</v>
       </c>
       <c r="F46">
         <v>8.1115349999999999</v>
@@ -18689,16 +18692,16 @@
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" t="s">
         <v>234</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>459</v>
+      </c>
+      <c r="D47" t="s">
         <v>235</v>
-      </c>
-      <c r="C47" t="s">
-        <v>460</v>
-      </c>
-      <c r="D47" t="s">
-        <v>236</v>
       </c>
       <c r="F47">
         <v>1.3</v>
@@ -18799,16 +18802,16 @@
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" t="s">
         <v>237</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>460</v>
+      </c>
+      <c r="D48" t="s">
         <v>238</v>
-      </c>
-      <c r="C48" t="s">
-        <v>461</v>
-      </c>
-      <c r="D48" t="s">
-        <v>239</v>
       </c>
       <c r="F48">
         <v>3.4048020000000001</v>
@@ -18909,16 +18912,16 @@
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" t="s">
         <v>240</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>461</v>
+      </c>
+      <c r="D49" t="s">
         <v>241</v>
-      </c>
-      <c r="C49" t="s">
-        <v>462</v>
-      </c>
-      <c r="D49" t="s">
-        <v>242</v>
       </c>
       <c r="F49">
         <v>0.82003599999999999</v>
@@ -19019,16 +19022,16 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" t="s">
         <v>243</v>
       </c>
-      <c r="B50" t="s">
-        <v>244</v>
-      </c>
       <c r="C50" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F50">
         <v>0.83380600000000005</v>
@@ -19129,21 +19132,21 @@
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" t="s">
         <v>246</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>463</v>
+      </c>
+      <c r="D52" t="s">
         <v>247</v>
-      </c>
-      <c r="C52" t="s">
-        <v>464</v>
-      </c>
-      <c r="D52" t="s">
-        <v>248</v>
       </c>
       <c r="F52">
         <v>13.797461999999999</v>
@@ -19244,16 +19247,16 @@
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C53" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F53">
         <v>0.60571200000000003</v>
@@ -19354,16 +19357,16 @@
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54" t="s">
         <v>250</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>465</v>
+      </c>
+      <c r="D54" t="s">
         <v>251</v>
-      </c>
-      <c r="C54" t="s">
-        <v>466</v>
-      </c>
-      <c r="D54" t="s">
-        <v>252</v>
       </c>
       <c r="F54">
         <v>15.371568</v>
@@ -19464,16 +19467,16 @@
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" t="s">
         <v>253</v>
       </c>
-      <c r="B55" t="s">
-        <v>254</v>
-      </c>
       <c r="C55" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F55">
         <v>13.228505999999999</v>
@@ -19574,16 +19577,16 @@
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" t="s">
         <v>255</v>
       </c>
-      <c r="B56" t="s">
-        <v>256</v>
-      </c>
       <c r="C56" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F56">
         <v>11.152912000000001</v>
@@ -19684,21 +19687,21 @@
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B58" t="s">
         <v>258</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>468</v>
+      </c>
+      <c r="D58" t="s">
         <v>259</v>
-      </c>
-      <c r="C58" t="s">
-        <v>469</v>
-      </c>
-      <c r="D58" t="s">
-        <v>260</v>
       </c>
       <c r="F58">
         <v>0.90693800000000002</v>
@@ -19799,16 +19802,16 @@
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" t="s">
         <v>261</v>
       </c>
-      <c r="B59" t="s">
-        <v>262</v>
-      </c>
       <c r="C59" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F59">
         <v>0.60857099999999997</v>
@@ -19909,16 +19912,16 @@
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" t="s">
         <v>263</v>
       </c>
-      <c r="B60" t="s">
-        <v>264</v>
-      </c>
       <c r="C60" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F60">
         <v>0.582561</v>
@@ -20019,16 +20022,16 @@
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>264</v>
+      </c>
+      <c r="B61" t="s">
         <v>265</v>
       </c>
-      <c r="B61" t="s">
-        <v>266</v>
-      </c>
       <c r="C61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F61">
         <v>0.59947300000000003</v>
@@ -20129,21 +20132,21 @@
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B63" t="s">
+        <v>267</v>
+      </c>
+      <c r="C63" t="s">
+        <v>472</v>
+      </c>
+      <c r="D63" t="s">
         <v>268</v>
-      </c>
-      <c r="C63" t="s">
-        <v>473</v>
-      </c>
-      <c r="D63" t="s">
-        <v>269</v>
       </c>
       <c r="F63">
         <v>621.62353499999995</v>
@@ -20244,16 +20247,16 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F64">
         <v>458.33587599999998</v>
@@ -20354,26 +20357,26 @@
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>272</v>
+      </c>
+      <c r="B67" t="s">
         <v>273</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>474</v>
+      </c>
+      <c r="D67" t="s">
         <v>274</v>
-      </c>
-      <c r="C67" t="s">
-        <v>475</v>
-      </c>
-      <c r="D67" t="s">
-        <v>275</v>
       </c>
       <c r="F67">
         <v>0.96857099999999996</v>
@@ -20474,16 +20477,16 @@
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>275</v>
+      </c>
+      <c r="B68" t="s">
         <v>276</v>
       </c>
-      <c r="B68" t="s">
-        <v>277</v>
-      </c>
       <c r="C68" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F68">
         <v>0.87612599999999996</v>
@@ -20584,16 +20587,16 @@
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" t="s">
         <v>278</v>
       </c>
-      <c r="B69" t="s">
-        <v>279</v>
-      </c>
       <c r="C69" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F69">
         <v>0.96265100000000003</v>
@@ -20694,21 +20697,21 @@
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C71" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F71">
         <v>0.98902999999999996</v>
@@ -20809,16 +20812,16 @@
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C72" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D72" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F72">
         <v>0.99050899999999997</v>
@@ -20919,16 +20922,16 @@
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C73" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D73" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F73">
         <v>0.98917699999999997</v>
@@ -21029,31 +21032,31 @@
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>285</v>
+      </c>
+      <c r="B77" t="s">
         <v>286</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
+        <v>480</v>
+      </c>
+      <c r="D77" t="s">
         <v>287</v>
-      </c>
-      <c r="C77" t="s">
-        <v>481</v>
-      </c>
-      <c r="D77" t="s">
-        <v>288</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -21154,16 +21157,16 @@
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>288</v>
+      </c>
+      <c r="B78" t="s">
         <v>289</v>
       </c>
-      <c r="B78" t="s">
-        <v>290</v>
-      </c>
       <c r="C78" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F78">
         <v>18.318204999999999</v>
@@ -21264,16 +21267,16 @@
     </row>
     <row r="79" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>292</v>
-      </c>
       <c r="C79" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F79" s="8">
         <v>1.4232E-2</v>
@@ -21374,16 +21377,16 @@
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C80" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F80">
         <v>18.332438</v>
@@ -21484,21 +21487,21 @@
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
+        <v>294</v>
+      </c>
+      <c r="C82" t="s">
+        <v>484</v>
+      </c>
+      <c r="D82" t="s">
         <v>295</v>
-      </c>
-      <c r="C82" t="s">
-        <v>485</v>
-      </c>
-      <c r="D82" t="s">
-        <v>296</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -21599,16 +21602,16 @@
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C83" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F83">
         <v>27.109546999999999</v>
@@ -21709,16 +21712,16 @@
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C84" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D84" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F84">
         <v>1.8546E-2</v>
@@ -21819,16 +21822,16 @@
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C85" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F85">
         <v>27.128091999999999</v>
@@ -21929,21 +21932,21 @@
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>300</v>
+      </c>
+      <c r="B87" t="s">
         <v>301</v>
       </c>
-      <c r="B87" t="s">
-        <v>302</v>
-      </c>
       <c r="C87" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F87">
         <v>4.2282419999999998</v>
@@ -22044,16 +22047,16 @@
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>302</v>
+      </c>
+      <c r="B88" t="s">
         <v>303</v>
       </c>
-      <c r="B88" t="s">
-        <v>304</v>
-      </c>
       <c r="C88" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D88" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F88">
         <v>22.899849</v>
@@ -22154,21 +22157,21 @@
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B90" t="s">
+        <v>305</v>
+      </c>
+      <c r="C90" t="s">
+        <v>490</v>
+      </c>
+      <c r="D90" t="s">
         <v>306</v>
-      </c>
-      <c r="C90" t="s">
-        <v>491</v>
-      </c>
-      <c r="D90" t="s">
-        <v>307</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -22269,16 +22272,16 @@
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C91" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D91" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F91">
         <v>225.07347100000001</v>
@@ -22379,16 +22382,16 @@
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C92" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F92">
         <v>0.172512</v>
@@ -22489,16 +22492,16 @@
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C93" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D93" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F93">
         <v>225.24598700000001</v>
@@ -22618,33 +22621,33 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
         <v>174</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>175</v>
-      </c>
-      <c r="D5" t="s">
-        <v>176</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -22743,7 +22746,7 @@
         <v>2050</v>
       </c>
       <c r="AK5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -22753,21 +22756,21 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" t="s">
         <v>313</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>496</v>
+      </c>
+      <c r="D8" t="s">
         <v>314</v>
-      </c>
-      <c r="C8" t="s">
-        <v>497</v>
-      </c>
-      <c r="D8" t="s">
-        <v>315</v>
       </c>
       <c r="F8">
         <v>0.65425999999999995</v>
@@ -22868,16 +22871,16 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" t="s">
         <v>316</v>
       </c>
-      <c r="B9" t="s">
-        <v>317</v>
-      </c>
       <c r="C9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F9">
         <v>1.097099</v>
@@ -22978,16 +22981,16 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" t="s">
         <v>318</v>
       </c>
-      <c r="B10" t="s">
-        <v>319</v>
-      </c>
       <c r="C10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F10">
         <v>0.33711200000000002</v>
@@ -23088,16 +23091,16 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" t="s">
         <v>320</v>
       </c>
-      <c r="B11" t="s">
-        <v>321</v>
-      </c>
       <c r="C11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F11">
         <v>0.60391499999999998</v>
@@ -23198,16 +23201,16 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" t="s">
         <v>322</v>
       </c>
-      <c r="B12" t="s">
-        <v>323</v>
-      </c>
       <c r="C12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F12">
         <v>0.56415400000000004</v>
@@ -23308,16 +23311,16 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" t="s">
         <v>324</v>
       </c>
-      <c r="B13" t="s">
-        <v>325</v>
-      </c>
       <c r="C13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F13">
         <v>0.65307199999999999</v>
@@ -23418,16 +23421,16 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14" t="s">
         <v>326</v>
       </c>
-      <c r="B14" t="s">
-        <v>327</v>
-      </c>
       <c r="C14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F14">
         <v>0.91181500000000004</v>
@@ -23528,16 +23531,16 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B15" t="s">
         <v>328</v>
       </c>
-      <c r="B15" t="s">
-        <v>329</v>
-      </c>
       <c r="C15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F15">
         <v>0.62496600000000002</v>
@@ -23638,16 +23641,16 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" t="s">
         <v>330</v>
       </c>
-      <c r="B16" t="s">
-        <v>331</v>
-      </c>
       <c r="C16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F16">
         <v>1.4580070000000001</v>
@@ -23748,16 +23751,16 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" t="s">
         <v>332</v>
       </c>
-      <c r="B17" t="s">
-        <v>333</v>
-      </c>
       <c r="C17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F17">
         <v>0.42540099999999997</v>
@@ -23858,16 +23861,16 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B18" t="s">
         <v>334</v>
       </c>
-      <c r="B18" t="s">
-        <v>335</v>
-      </c>
       <c r="C18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F18">
         <v>0.47082200000000002</v>
@@ -23968,16 +23971,16 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F19">
         <v>7.8006229999999999</v>
@@ -24083,21 +24086,21 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B22" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D22" t="s">
         <v>338</v>
-      </c>
-      <c r="C22" t="s">
-        <v>509</v>
-      </c>
-      <c r="D22" t="s">
-        <v>339</v>
       </c>
       <c r="F22">
         <v>10.401047</v>
@@ -24198,16 +24201,16 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F23">
         <v>13.364542999999999</v>
@@ -24308,16 +24311,16 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F24">
         <v>1.312878</v>
@@ -24418,16 +24421,16 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F25">
         <v>1.917279</v>
@@ -24528,16 +24531,16 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C26" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F26">
         <v>2.6232890000000002</v>
@@ -24638,16 +24641,16 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F27">
         <v>6.4305729999999999</v>
@@ -24748,16 +24751,16 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F28">
         <v>9.5479479999999999</v>
@@ -24858,16 +24861,16 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C29" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F29">
         <v>9.0393329999999992</v>
@@ -24968,16 +24971,16 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C30" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F30">
         <v>17.170576000000001</v>
@@ -25078,16 +25081,16 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F31">
         <v>14.445923000000001</v>
@@ -25188,16 +25191,16 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F32">
         <v>7.3290100000000002</v>
@@ -25298,16 +25301,16 @@
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C33" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F33">
         <v>93.582397</v>
@@ -25413,21 +25416,21 @@
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
+        <v>350</v>
+      </c>
+      <c r="C36" t="s">
+        <v>520</v>
+      </c>
+      <c r="D36" t="s">
         <v>351</v>
-      </c>
-      <c r="C36" t="s">
-        <v>521</v>
-      </c>
-      <c r="D36" t="s">
-        <v>352</v>
       </c>
       <c r="F36">
         <v>1.620503</v>
@@ -25528,16 +25531,16 @@
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C37" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F37">
         <v>0.788269</v>
@@ -25638,16 +25641,16 @@
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F38">
         <v>0.80938200000000005</v>
@@ -25748,21 +25751,21 @@
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C40" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F40">
         <v>3.5652750000000002</v>
@@ -25863,16 +25866,16 @@
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F41">
         <v>0.76141800000000004</v>
@@ -25973,21 +25976,21 @@
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F43">
         <v>1.128255</v>
@@ -26088,16 +26091,16 @@
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C44" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F44">
         <v>0.88786500000000002</v>
@@ -26198,16 +26201,16 @@
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F45">
         <v>0.80547100000000005</v>
@@ -26308,21 +26311,21 @@
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
+        <v>361</v>
+      </c>
+      <c r="C47" t="s">
+        <v>528</v>
+      </c>
+      <c r="D47" t="s">
         <v>362</v>
-      </c>
-      <c r="C47" t="s">
-        <v>529</v>
-      </c>
-      <c r="D47" t="s">
-        <v>363</v>
       </c>
       <c r="F47">
         <v>0.55371400000000004</v>
@@ -26423,21 +26426,21 @@
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C49" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F49">
         <v>0.69221600000000005</v>
@@ -26538,16 +26541,16 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C50" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D50" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F50">
         <v>0.31666699999999998</v>
@@ -26648,26 +26651,26 @@
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
+        <v>368</v>
+      </c>
+      <c r="C53" t="s">
+        <v>531</v>
+      </c>
+      <c r="D53" t="s">
         <v>369</v>
-      </c>
-      <c r="C53" t="s">
-        <v>532</v>
-      </c>
-      <c r="D53" t="s">
-        <v>370</v>
       </c>
       <c r="F53">
         <v>70.972008000000002</v>
@@ -26768,21 +26771,21 @@
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C55" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F55">
         <v>2.6778140000000001</v>
@@ -26883,31 +26886,31 @@
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>372</v>
+      </c>
+      <c r="B59" t="s">
         <v>373</v>
       </c>
-      <c r="B59" t="s">
-        <v>374</v>
-      </c>
       <c r="C59" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D59" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F59">
         <v>1.7117E-2</v>
@@ -27008,16 +27011,16 @@
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C60" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F60">
         <v>1.3771519999999999</v>
@@ -27118,16 +27121,16 @@
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B61" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C61" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F61">
         <v>15.855377000000001</v>
@@ -27228,16 +27231,16 @@
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B62" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C62" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F62">
         <v>0.55488099999999996</v>
@@ -27338,16 +27341,16 @@
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C63" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F63">
         <v>0.52205299999999999</v>
@@ -27448,16 +27451,16 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C64" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F64">
         <v>18.32658</v>
@@ -27558,21 +27561,21 @@
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C66" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F66">
         <v>0.11938799999999999</v>
@@ -27673,16 +27676,16 @@
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B67" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C67" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D67" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F67">
         <v>9.6056340000000002</v>
@@ -27783,16 +27786,16 @@
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B68" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C68" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F68">
         <v>20.024660000000001</v>
@@ -27893,16 +27896,16 @@
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F69">
         <v>0.75530799999999998</v>
@@ -28003,16 +28006,16 @@
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B70" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C70" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F70">
         <v>3.7357119999999999</v>
@@ -28113,16 +28116,16 @@
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B71" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C71" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F71">
         <v>34.240704000000001</v>
@@ -28223,21 +28226,21 @@
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B73" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C73" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D73" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F73">
         <v>8.2284749999999995</v>
@@ -28338,16 +28341,16 @@
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B74" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C74" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F74">
         <v>26.012225999999998</v>
@@ -28448,21 +28451,21 @@
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F76">
         <v>1.23607</v>
@@ -28563,16 +28566,16 @@
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B77" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F77">
         <v>105.194168</v>
@@ -28673,16 +28676,16 @@
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B78" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C78" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D78" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F78">
         <v>165.691711</v>
@@ -28783,16 +28786,16 @@
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B79" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C79" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D79" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F79">
         <v>6.897945</v>
@@ -28893,16 +28896,16 @@
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B80" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C80" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F80">
         <v>85.124961999999996</v>
@@ -29003,16 +29006,16 @@
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C81" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F81">
         <v>364.14486699999998</v>
@@ -29259,13 +29262,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -29277,7 +29280,7 @@
     <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -29289,7 +29292,7 @@
       <c r="A4" s="27"/>
       <c r="B4" s="26"/>
       <c r="C4" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -29299,27 +29302,27 @@
     <row r="5" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="E5" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="22">
         <v>123.53</v>
@@ -29342,7 +29345,7 @@
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>1</v>
@@ -29365,7 +29368,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="11">
         <v>21.92</v>
@@ -29388,7 +29391,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="11">
         <v>5.88</v>
@@ -29411,7 +29414,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="11">
         <v>16.04</v>
@@ -29434,7 +29437,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="11">
         <v>27.04</v>
@@ -29457,7 +29460,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="11">
         <v>18.55</v>
@@ -29480,7 +29483,7 @@
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="11">
         <v>8.5</v>
@@ -29503,7 +29506,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="11">
         <v>46.84</v>
@@ -29526,7 +29529,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="11">
         <v>24.84</v>
@@ -29549,7 +29552,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="11">
         <v>7.38</v>
@@ -29572,7 +29575,7 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="11">
         <v>14.62</v>
@@ -29595,7 +29598,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="11">
         <v>27.72</v>
@@ -29618,7 +29621,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="11">
         <v>9.2200000000000006</v>
@@ -29641,7 +29644,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="11">
         <v>4.62</v>
@@ -29664,7 +29667,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="11">
         <v>4.5999999999999996</v>
@@ -29687,7 +29690,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="11">
         <v>18.510000000000002</v>
@@ -29710,7 +29713,7 @@
     </row>
     <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>1</v>
@@ -29733,7 +29736,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="11">
         <v>100.44</v>
@@ -29756,7 +29759,7 @@
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="11">
         <v>89.24</v>
@@ -29779,7 +29782,7 @@
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="11">
         <v>11.2</v>
@@ -29802,7 +29805,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="11">
         <v>23.09</v>
@@ -29825,7 +29828,7 @@
     </row>
     <row r="28" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>1</v>
@@ -29848,7 +29851,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="11">
         <v>42.5</v>
@@ -29871,7 +29874,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="11">
         <v>36.79</v>
@@ -29894,7 +29897,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="11">
         <v>15.06</v>
@@ -29917,7 +29920,7 @@
     </row>
     <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="11">
         <v>22.31</v>
@@ -29940,7 +29943,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="11">
         <v>6.87</v>
@@ -29963,7 +29966,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>1</v>
@@ -29986,7 +29989,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="11">
         <v>20.260000000000002</v>
@@ -30009,7 +30012,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="11">
         <v>12.48</v>
@@ -30032,7 +30035,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="11">
         <v>12.76</v>
@@ -30055,7 +30058,7 @@
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="11">
         <v>18.34</v>
@@ -30078,7 +30081,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="11">
         <v>16.3</v>
@@ -30101,7 +30104,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="11">
         <v>17.16</v>
@@ -30124,7 +30127,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="11">
         <v>16.16</v>
@@ -30147,7 +30150,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="11">
         <v>5.53</v>
@@ -30170,7 +30173,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B43" s="11">
         <v>4.5599999999999996</v>
@@ -30193,7 +30196,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>1</v>
@@ -30216,7 +30219,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B45" s="11">
         <v>47.15</v>
@@ -30228,18 +30231,18 @@
         <v>2.57</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B46" s="11">
         <v>32.47</v>
@@ -30251,18 +30254,18 @@
         <v>3.94</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B47" s="11">
         <v>2.61</v>
@@ -30274,18 +30277,18 @@
         <v>0.85</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B48" s="11">
         <v>2.2799999999999998</v>
@@ -30297,27 +30300,27 @@
         <v>0.09</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="11">
         <v>39.01</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E49" s="11">
         <v>9.34</v>
@@ -30331,7 +30334,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>1</v>
@@ -30354,7 +30357,7 @@
     </row>
     <row r="51" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B51" s="11">
         <v>45.44</v>
@@ -30377,7 +30380,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="11">
         <v>33.369999999999997</v>
@@ -30400,7 +30403,7 @@
     </row>
     <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="11">
         <v>18.8</v>
@@ -30423,7 +30426,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="11">
         <v>15.65</v>
@@ -30446,7 +30449,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B55" s="11">
         <v>6.42</v>
@@ -30464,12 +30467,12 @@
         <v>2.56</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B56" s="11">
         <v>1.89</v>
@@ -30492,7 +30495,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="11">
         <v>1.46</v>
@@ -30510,12 +30513,12 @@
         <v>0.31</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" s="11">
         <v>0.5</v>
@@ -30524,21 +30527,21 @@
         <v>0.26</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F58" s="11">
         <v>0.14000000000000001</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>1</v>
@@ -30561,7 +30564,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" s="11">
         <v>76.03</v>
@@ -30576,7 +30579,7 @@
         <v>5.89</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G60" s="11">
         <v>3.09</v>
@@ -30584,7 +30587,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" s="11">
         <v>9.69</v>
@@ -30599,7 +30602,7 @@
         <v>0.46</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G61" s="11">
         <v>3.08</v>
@@ -30607,7 +30610,7 @@
     </row>
     <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62" s="11">
         <v>5.19</v>
@@ -30622,7 +30625,7 @@
         <v>1.23</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G62" s="11">
         <v>0.35</v>
@@ -30630,7 +30633,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" s="11">
         <v>4.8899999999999997</v>
@@ -30645,15 +30648,15 @@
         <v>0.66</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" s="11">
         <v>2.14</v>
@@ -30668,15 +30671,15 @@
         <v>0.43</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65" s="11">
         <v>1.49</v>
@@ -30691,7 +30694,7 @@
         <v>0.51</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G65" s="11">
         <v>0.08</v>
@@ -30699,7 +30702,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="11">
         <v>1.26</v>
@@ -30714,7 +30717,7 @@
         <v>0.15</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G66" s="11">
         <v>0.18</v>
@@ -30722,30 +30725,30 @@
     </row>
     <row r="67" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="11">
         <v>22.84</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F67" s="11">
         <v>22.84</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>1</v>
@@ -30768,7 +30771,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" s="11">
         <v>4.59</v>
@@ -30929,7 +30932,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76" s="11">
         <v>19.899999999999999</v>
@@ -30952,7 +30955,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>1</v>
@@ -30984,7 +30987,7 @@
         <v>0.1</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E78" s="11">
         <v>0.32</v>
@@ -30993,7 +30996,7 @@
         <v>1.36</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -31090,7 +31093,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="11">
         <v>6.16</v>
@@ -31105,7 +31108,7 @@
         <v>0.13</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -31113,7 +31116,7 @@
     </row>
     <row r="84" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>1</v>
@@ -31228,7 +31231,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="11">
         <v>27.64</v>
@@ -31251,7 +31254,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>1</v>
@@ -31283,16 +31286,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -31343,7 +31346,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="11">
         <v>16.21</v>
@@ -31366,7 +31369,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>1</v>
@@ -31435,7 +31438,7 @@
     </row>
     <row r="98" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="11">
         <v>2.91</v>
@@ -31458,7 +31461,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>1</v>
@@ -31481,7 +31484,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B100" s="11">
         <v>36.83</v>
@@ -31493,18 +31496,18 @@
         <v>2.98</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="11">
         <v>21.71</v>
@@ -31516,18 +31519,18 @@
         <v>1.87</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="11">
         <v>15.12</v>
@@ -31539,18 +31542,18 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B103" s="11">
         <v>47.68</v>
@@ -31562,27 +31565,27 @@
         <v>4.47</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B104" s="11">
         <v>39.01</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E104" s="11">
         <v>9.34</v>
@@ -31596,7 +31599,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>1</v>
@@ -31619,7 +31622,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B106" s="11">
         <v>56.5</v>
@@ -31631,18 +31634,18 @@
         <v>3.52</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107" s="11">
         <v>7.68</v>
@@ -31654,18 +31657,18 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="11">
         <v>48.83</v>
@@ -31677,18 +31680,18 @@
         <v>2.94</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B109" s="11">
         <v>28.01</v>
@@ -31700,27 +31703,27 @@
         <v>3.94</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B110" s="11">
         <v>39.01</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E110" s="11">
         <v>9.34</v>
@@ -31734,7 +31737,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>1</v>
@@ -31757,7 +31760,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B112" s="11">
         <v>51.79</v>
@@ -31769,18 +31772,18 @@
         <v>3.6</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B113" s="11">
         <v>11.27</v>
@@ -31792,18 +31795,18 @@
         <v>1.64</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B114" s="11">
         <v>34.18</v>
@@ -31815,18 +31818,18 @@
         <v>1.91</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115" s="11">
         <v>6.34</v>
@@ -31838,18 +31841,18 @@
         <v>0.06</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B116" s="11">
         <v>32.72</v>
@@ -31861,27 +31864,27 @@
         <v>3.85</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B117" s="11">
         <v>39.01</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E117" s="11">
         <v>9.34</v>
@@ -31895,7 +31898,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>1</v>
@@ -31918,7 +31921,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B119" s="11">
         <v>34.340000000000003</v>
@@ -31941,7 +31944,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B120" s="11">
         <v>64.27</v>
@@ -31964,7 +31967,7 @@
     </row>
     <row r="121" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B121" s="11">
         <v>21.29</v>
@@ -31987,7 +31990,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B122" s="11">
         <v>3.63</v>
@@ -32010,7 +32013,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>1</v>
@@ -32033,7 +32036,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B124" s="11">
         <v>55.37</v>
@@ -32056,7 +32059,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B125" s="11">
         <v>52.63</v>
@@ -32079,7 +32082,7 @@
     </row>
     <row r="126" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B126" s="11">
         <v>10.39</v>
@@ -32102,7 +32105,7 @@
     </row>
     <row r="127" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B127" s="11">
         <v>5.14</v>
@@ -32125,7 +32128,7 @@
     </row>
     <row r="128" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B128" s="15" t="s">
         <v>1</v>
@@ -32148,7 +32151,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B129" s="11">
         <v>55.18</v>
@@ -32166,12 +32169,12 @@
         <v>8.75</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B130" s="11">
         <v>61.52</v>
@@ -32189,27 +32192,27 @@
         <v>14.08</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B131" s="11">
         <v>6.83</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G131" s="11">
         <v>6.83</v>
@@ -32217,7 +32220,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B132" s="15" t="s">
         <v>1</v>
@@ -32240,7 +32243,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B133" s="11">
         <v>6.95</v>
@@ -32258,12 +32261,12 @@
         <v>5.85</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B134" s="11">
         <v>18.149999999999999</v>
@@ -32286,7 +32289,7 @@
     </row>
     <row r="135" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B135" s="11">
         <v>29.35</v>
@@ -32309,7 +32312,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B136" s="11">
         <v>38.42</v>
@@ -32332,7 +32335,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B137" s="11">
         <v>13.61</v>
@@ -32355,7 +32358,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B138" s="11">
         <v>12.43</v>
@@ -32370,7 +32373,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G138" s="11">
         <v>0.13</v>
@@ -32378,7 +32381,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B139" s="11">
         <v>4.62</v>
@@ -32393,15 +32396,15 @@
         <v>0.09</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B140" s="15" t="s">
         <v>1</v>
@@ -32424,7 +32427,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B141" s="11">
         <v>43.51</v>
@@ -32447,7 +32450,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B142" s="11">
         <v>77.95</v>
@@ -32470,7 +32473,7 @@
     </row>
     <row r="143" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B143" s="11">
         <v>2.0699999999999998</v>
@@ -32488,12 +32491,12 @@
         <v>0.27</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B144" s="15" t="s">
         <v>1</v>
@@ -32516,7 +32519,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B145" s="11">
         <v>47.4</v>
@@ -32539,7 +32542,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B146" s="11">
         <v>40.31</v>
@@ -32562,7 +32565,7 @@
     </row>
     <row r="147" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B147" s="11">
         <v>31.85</v>
@@ -32585,7 +32588,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B148" s="11">
         <v>1.72</v>
@@ -32608,7 +32611,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B149" s="11">
         <v>2.25</v>
@@ -32626,12 +32629,12 @@
         <v>0.3</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B150" s="15" t="s">
         <v>1</v>
@@ -32723,7 +32726,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B154" s="11">
         <v>8.16</v>
@@ -32746,7 +32749,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" s="15" t="s">
         <v>1</v>
@@ -32769,7 +32772,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B156" s="11">
         <v>34.299999999999997</v>
@@ -32792,7 +32795,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B157" s="11">
         <v>36.81</v>
@@ -32815,7 +32818,7 @@
     </row>
     <row r="158" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B158" s="11">
         <v>52.42</v>
@@ -32838,7 +32841,7 @@
     </row>
     <row r="159" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B159" s="15" t="s">
         <v>1</v>
@@ -32861,7 +32864,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B160" s="11">
         <v>67.83</v>
@@ -32876,7 +32879,7 @@
         <v>2.11</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G160" s="11">
         <v>3.41</v>
@@ -32884,7 +32887,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B161" s="11">
         <v>32.869999999999997</v>
@@ -32899,7 +32902,7 @@
         <v>7.23</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G161" s="11">
         <v>3.42</v>
@@ -32907,30 +32910,30 @@
     </row>
     <row r="162" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B162" s="11">
         <v>22.84</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F162" s="11">
         <v>22.84</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B163" s="20" t="s">
         <v>1</v>
@@ -32953,7 +32956,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B164" s="20">
         <v>1.82</v>
@@ -32965,18 +32968,18 @@
         <v>0.11</v>
       </c>
       <c r="E164" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F164" s="20">
         <v>0.17</v>
       </c>
       <c r="G164" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B165" s="20">
         <v>1.39</v>
@@ -32988,18 +32991,18 @@
         <v>0.09</v>
       </c>
       <c r="E165" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B166" s="20">
         <v>121.71</v>
@@ -33022,7 +33025,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B167" s="17" t="s">
         <v>1</v>
@@ -33045,7 +33048,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B168" s="11">
         <v>84.52</v>
@@ -33068,7 +33071,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B169" s="11">
         <v>69.489999999999995</v>
@@ -33091,7 +33094,7 @@
     </row>
     <row r="170" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B170" s="11">
         <v>15.03</v>
@@ -33114,7 +33117,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B171" s="11">
         <v>39.01</v>
@@ -33137,7 +33140,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B172" s="15" t="s">
         <v>1</v>
@@ -33160,7 +33163,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B173" s="11">
         <v>3.37</v>
@@ -33172,10 +33175,10 @@
         <v>0.11</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G173" s="11">
         <v>0.1</v>
@@ -33183,7 +33186,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B174" s="11">
         <v>87.98</v>
@@ -33195,10 +33198,10 @@
         <v>7.34</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G174" s="11">
         <v>6.73</v>
@@ -33206,16 +33209,16 @@
     </row>
     <row r="175" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B175" s="11">
         <v>32.18</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E175" s="11">
         <v>9.34</v>
@@ -33224,12 +33227,12 @@
         <v>22.84</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A176" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B176" s="15" t="s">
         <v>1</v>
@@ -33252,7 +33255,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B177" s="11">
         <v>22.72</v>
@@ -33275,7 +33278,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B178" s="11">
         <v>19</v>
@@ -33298,7 +33301,7 @@
     </row>
     <row r="179" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B179" s="11">
         <v>0.25</v>
@@ -33307,21 +33310,21 @@
         <v>0.15</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B180" s="11">
         <v>3.08</v>
@@ -33344,7 +33347,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B181" s="11">
         <v>0.39</v>
@@ -33353,21 +33356,21 @@
         <v>0.16</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F181" s="11">
         <v>0.18</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B182" s="11">
         <v>100.81</v>
@@ -33390,7 +33393,7 @@
     </row>
     <row r="183" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B183" s="15" t="s">
         <v>1</v>
@@ -33413,7 +33416,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B184" s="11">
         <v>17.66</v>
@@ -33436,7 +33439,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B185" s="11">
         <v>105.87</v>
@@ -33459,7 +33462,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B186" s="15" t="s">
         <v>1</v>
@@ -33482,7 +33485,7 @@
     </row>
     <row r="187" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B187" s="11">
         <v>8.52</v>
@@ -33494,10 +33497,10 @@
         <v>0.2</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G187" s="11">
         <v>0.23</v>
@@ -33505,7 +33508,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B188" s="11">
         <v>82.83</v>
@@ -33517,10 +33520,10 @@
         <v>7.25</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G188" s="11">
         <v>6.6</v>
@@ -33528,16 +33531,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B189" s="11">
         <v>32.18</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E189" s="11">
         <v>9.34</v>
@@ -33546,12 +33549,12 @@
         <v>22.84</v>
       </c>
       <c r="G189" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B190" s="15" t="s">
         <v>1</v>
@@ -33574,7 +33577,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B191" s="11">
         <v>1.9</v>
@@ -33586,18 +33589,18 @@
         <v>0.06</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F191" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B192" s="11">
         <v>5.08</v>
@@ -33609,10 +33612,10 @@
         <v>0.1</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F192" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G192" s="11">
         <v>0.14000000000000001</v>
@@ -33620,7 +33623,7 @@
     </row>
     <row r="193" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B193" s="11">
         <v>1.54</v>
@@ -33629,21 +33632,21 @@
         <v>1.48</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F193" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B194" s="11">
         <v>82.83</v>
@@ -33655,10 +33658,10 @@
         <v>7.25</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G194" s="11">
         <v>6.6</v>
@@ -33666,16 +33669,16 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B195" s="11">
         <v>32.18</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E195" s="11">
         <v>9.34</v>
@@ -33684,12 +33687,12 @@
         <v>22.84</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B196" s="15" t="s">
         <v>1</v>
@@ -33712,7 +33715,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B197" s="11">
         <v>2.89</v>
@@ -33724,18 +33727,18 @@
         <v>0.05</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B198" s="11">
         <v>0.85</v>
@@ -33744,21 +33747,21 @@
         <v>0.82</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B199" s="11">
         <v>1.32</v>
@@ -33767,21 +33770,21 @@
         <v>1.3</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F199" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G199" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B200" s="11">
         <v>0.28999999999999998</v>
@@ -33790,21 +33793,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G200" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B201" s="11">
         <v>0.42</v>
@@ -33813,21 +33816,21 @@
         <v>0.42</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F201" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G201" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B202" s="11">
         <v>5.63</v>
@@ -33839,10 +33842,10 @@
         <v>0.15</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G202" s="11">
         <v>0.22</v>
@@ -33850,7 +33853,7 @@
     </row>
     <row r="203" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B203" s="11">
         <v>82.83</v>
@@ -33862,10 +33865,10 @@
         <v>7.25</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F203" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G203" s="11">
         <v>6.6</v>
@@ -33873,16 +33876,16 @@
     </row>
     <row r="204" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B204" s="11">
         <v>32.18</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E204" s="11">
         <v>9.34</v>
@@ -33891,12 +33894,12 @@
         <v>22.84</v>
       </c>
       <c r="G204" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="205" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B205" s="15" t="s">
         <v>1</v>
@@ -33919,7 +33922,7 @@
     </row>
     <row r="206" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B206" s="11">
         <v>8.84</v>
@@ -33942,7 +33945,7 @@
     </row>
     <row r="207" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B207" s="11">
         <v>114.69</v>
@@ -33965,7 +33968,7 @@
     </row>
     <row r="208" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B208" s="15" t="s">
         <v>1</v>
@@ -33988,7 +33991,7 @@
     </row>
     <row r="209" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B209" s="11">
         <v>4.22</v>
@@ -34011,7 +34014,7 @@
     </row>
     <row r="210" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B210" s="11">
         <v>1.27</v>
@@ -34020,21 +34023,21 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G210" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B211" s="11">
         <v>3.35</v>
@@ -34046,7 +34049,7 @@
         <v>0.08</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F211" s="11">
         <v>0.21</v>
@@ -34057,7 +34060,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B212" s="11">
         <v>114.69</v>
@@ -34080,7 +34083,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B213" s="15" t="s">
         <v>1</v>
@@ -34103,7 +34106,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B214" s="11">
         <v>4.41</v>
@@ -34115,7 +34118,7 @@
         <v>0.1</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F214" s="11">
         <v>0.24</v>
@@ -34126,7 +34129,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B215" s="11">
         <v>1.47</v>
@@ -34138,18 +34141,18 @@
         <v>0.04</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F215" s="11">
         <v>0.11</v>
       </c>
       <c r="G215" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B216" s="11">
         <v>0.36</v>
@@ -34158,21 +34161,21 @@
         <v>0.32</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G216" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B217" s="11">
         <v>2.6</v>
@@ -34184,7 +34187,7 @@
         <v>0.12</v>
       </c>
       <c r="E217" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F217" s="11">
         <v>0.34</v>
@@ -34195,7 +34198,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B218" s="11">
         <v>114.69</v>
@@ -34236,7 +34239,7 @@
     </row>
     <row r="221" spans="1:7" s="4" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="35" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B221" s="35"/>
       <c r="C221" s="35"/>
@@ -34271,10 +34274,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34284,21 +34287,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -34312,38 +34315,38 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>545</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B4">
         <f>INDEX('AEO Table 21'!$E$77:$AK$77,MATCH(About!$A$22,'AEO Table 21'!$E$5:$AK$5,0))*GW_to_MW*About!$A$25</f>
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <f>INDEX('AEO Table 21'!$E$77:$AK$77,MATCH(About!$A$22,'AEO Table 21'!$E$5:$AK$5,0))*GW_to_MW*About!$A$25</f>
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <f>INDEX('AEO Table 22'!$E$60:$AK$60,MATCH(About!$A$22,'AEO Table 22'!$E$5:$AK$5,0))*GW_to_MW</f>
         <v>1377.152</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -34357,55 +34360,55 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
         <f>INDEX('AEO Table 21'!$E$79:$AK$79,MATCH(About!$A$22,'AEO Table 21'!$E$5:$AK$5,0))*GW_to_MW*About!$A$25</f>
         <v>11.571780781996274</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f>INDEX('AEO Table 21'!$E$79:$AK$79,MATCH(About!$A$22,'AEO Table 21'!$E$5:$AK$5,0))*GW_to_MW*About!$A$26</f>
         <v>2.6602192180037236</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <f>INDEX('AEO Table 22'!$E$62:$AK$62,MATCH(About!$A$22,'AEO Table 22'!$E$5:$AK$5,0))*GW_to_MW</f>
         <v>554.88099999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <f>INDEX('AEO Table 21'!$E$78:$AK$78,MATCH(About!$A$22,'AEO Table 21'!$E$5:$AK$5,0))*GW_to_MW*About!$A$25</f>
         <v>14894.199872095845</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f>INDEX('AEO Table 21'!$E$78:$AK$78,MATCH(About!$A$22,'AEO Table 21'!$E$5:$AK$5,0))*GW_to_MW*About!$A$26</f>
         <v>3424.0051279041522</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f>INDEX('AEO Table 22'!$E$61:$AK$61,MATCH(About!$A$22,'AEO Table 22'!$E$5:$AK$5,0))*GW_to_MW</f>
         <v>15855.377</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -34419,7 +34422,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -34433,7 +34436,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -34442,27 +34445,27 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <f>INDEX('AEO Table 22'!$E$59:$AK$59,MATCH(About!$A$22,'AEO Table 22'!$E$5:$AK$5,0))*GW_to_MW</f>
         <v>17.117000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -34476,7 +34479,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -34490,7 +34493,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -34504,7 +34507,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -34518,7 +34521,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -34527,6 +34530,20 @@
         <v>0</v>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
     </row>

--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\bldgs\SYDEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71857E9-CBEA-41F2-BB27-BB1134E561B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312F2049-2A06-44C6-A79C-EBBBFE07E60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="553">
   <si>
     <t>Energy Information Administration</t>
   </si>
@@ -1846,6 +1846,24 @@
   </si>
   <si>
     <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -14512,9 +14530,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -14552,9 +14570,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14587,26 +14605,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14639,26 +14640,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -34274,10 +34258,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34547,6 +34531,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>547</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>548</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>549</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>550</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>551</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>552</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\bldgs\SYDEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312F2049-2A06-44C6-A79C-EBBBFE07E60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F68715-1BDC-4F96-B4F9-DAECB448B85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="554">
   <si>
     <t>Energy Information Administration</t>
   </si>
@@ -1863,7 +1863,10 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -1874,7 +1877,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1990,6 +1993,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2172,7 +2182,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2262,6 +2272,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="10">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -34258,10 +34271,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B25" sqref="B25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34602,7 +34615,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="36" t="s">
         <v>552</v>
       </c>
       <c r="B24">
@@ -34612,6 +34625,20 @@
         <v>0</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>0</v>
       </c>
     </row>
